--- a/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1068 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r567349431-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>99278</t>
+  </si>
+  <si>
+    <t>567349431</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Not a Quality-Barely an Econolodge</t>
+  </si>
+  <si>
+    <t>Apparently Choice Hotels does not police its motel chains. Despite reserving a ground floor because of mobility issues, we were sent to the 2nd floor by a rather surly clerk. The smoking room had no ashtrays and no toilet paper.  The heat/ac unit had NO MARKINGS. Is this the fan? Is this the heat? Is this the AC? Hook on bathroom door missing with old paint showing. Dirty dried-up washcloth fell out of shower curtain when I pulled it. Water in tub will NOT shut off – continual trickle. Nights 2 &amp; 3 the door key wouldn’t work. By night 4 I just stopped by the office to get a new key before trudging up the stairs. Night 4, no housekeeping AT ALL in the room. The icing on the cake, though, is the LOUD band playing outside at the dive that is just 100 feet away. Overall, this would be a mediocre Econolodge. As for being a Quality Inn, it fails miserably. My advice is that if you are expecting a Quality Inn, don’t stop here!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Apparently Choice Hotels does not police its motel chains. Despite reserving a ground floor because of mobility issues, we were sent to the 2nd floor by a rather surly clerk. The smoking room had no ashtrays and no toilet paper.  The heat/ac unit had NO MARKINGS. Is this the fan? Is this the heat? Is this the AC? Hook on bathroom door missing with old paint showing. Dirty dried-up washcloth fell out of shower curtain when I pulled it. Water in tub will NOT shut off – continual trickle. Nights 2 &amp; 3 the door key wouldn’t work. By night 4 I just stopped by the office to get a new key before trudging up the stairs. Night 4, no housekeeping AT ALL in the room. The icing on the cake, though, is the LOUD band playing outside at the dive that is just 100 feet away. Overall, this would be a mediocre Econolodge. As for being a Quality Inn, it fails miserably. My advice is that if you are expecting a Quality Inn, don’t stop here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r564588002-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>564588002</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving</t>
+  </si>
+  <si>
+    <t>The adage don't judge a book by its cover applies here. From the highway this motel looks good. But the when out sofa, dirty walls, and hair in the tub will set you straight. Oh, bonus, the breakfast is cold eggs, cold gravy and warm yogurt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r562404800-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>562404800</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>This property will harm Quality Inn's brand image</t>
+  </si>
+  <si>
+    <t>Old property in great need of reinvestment - no, just tear it down. Chairs with rips, holes in the sofa, peeling paint, grungy, dirty, shabby. My wife would't take her shoes off because the carpet looked unclean. It was Friday and a bar across the street played country music very loud and late. Given everything else this was not the worst thing. It made us discuss bedbugs and the wisdom of eating breakfast further down the road. The night before we stayed at a Comfort Inn in Arkansas that was wonderful. How can two properties owned by the same company be so different. PS, the plug for the hair drier was broken. The highway sign was not working, and the night manager (who answered my call for directions) sent me the the wrong side of the freeway. It was a memorable stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Old property in great need of reinvestment - no, just tear it down. Chairs with rips, holes in the sofa, peeling paint, grungy, dirty, shabby. My wife would't take her shoes off because the carpet looked unclean. It was Friday and a bar across the street played country music very loud and late. Given everything else this was not the worst thing. It made us discuss bedbugs and the wisdom of eating breakfast further down the road. The night before we stayed at a Comfort Inn in Arkansas that was wonderful. How can two properties owned by the same company be so different. PS, the plug for the hair drier was broken. The highway sign was not working, and the night manager (who answered my call for directions) sent me the the wrong side of the freeway. It was a memorable stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r541671622-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>541671622</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Loud Music</t>
+  </si>
+  <si>
+    <t>We checked in on Thursday night. We herd music from a bar next door around 7 pm. Then it went quiet. The music started again around 9 or 10 pm. It was loud even caused the car’s alarms to keep going on and off all night. The room was clean.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r539221389-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>539221389</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Be sure and check your bill carefully.  They will overcharge you.</t>
+  </si>
+  <si>
+    <t>We were coming back from Arkansas and needed to stay one night before continuing our return trip home the next day.  We called the day prior to our stay on September 24th and booked a room for one night.  When we received our  statement we were charged for two nights.  I have called the hotel three times.  Each time I am told the "manager" will call me back.  They never call.  I have asked repeatedly for the manager's name and they will not give me that persons name.  So we are now going to contest the entire charge.  We were towing a 38 ft Toyhauler RV and needed extra room to park so we have to change our room when we first checked in.  Desk staff was very nice.  However that does not compensate for charging us for two nights when we only stayed one night.  Nor does it compensate for their refusal to speak to me and refund the overcharge.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We were coming back from Arkansas and needed to stay one night before continuing our return trip home the next day.  We called the day prior to our stay on September 24th and booked a room for one night.  When we received our  statement we were charged for two nights.  I have called the hotel three times.  Each time I am told the "manager" will call me back.  They never call.  I have asked repeatedly for the manager's name and they will not give me that persons name.  So we are now going to contest the entire charge.  We were towing a 38 ft Toyhauler RV and needed extra room to park so we have to change our room when we first checked in.  Desk staff was very nice.  However that does not compensate for charging us for two nights when we only stayed one night.  Nor does it compensate for their refusal to speak to me and refund the overcharge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r491368204-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>491368204</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Quiet and great beds!</t>
+  </si>
+  <si>
+    <t>The staff were not attentive when we arrived. They were too busy smoking. Other then Han that the check in and stay was fine. We have stayed here a few times and will again because of the beds. They are very comfy!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r442272324-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>442272324</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stayed here over the Thanksgiving holiday.  Made Reservations couple weeks in advance.  Requested smoking room as Hubby does smoke.  We were planning on staying 3 nights but decided to stay 2.  Upon arrival Hubby spoke to Front Desk Clerk and the 3rd night was cancelled with no problem.  The only problem we encountered was the Smoking room.  Front Desk person Stated that there were none available as Cleaning Staff was off for the day and none were ready to occupy.  We were sent to a Nonsmoking room.  Very clean and comfy.  The King bed was very comfy.  Did not try the Breakfast they provided.  Our room was cleaned each day.  All went well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stayed here over the Thanksgiving holiday.  Made Reservations couple weeks in advance.  Requested smoking room as Hubby does smoke.  We were planning on staying 3 nights but decided to stay 2.  Upon arrival Hubby spoke to Front Desk Clerk and the 3rd night was cancelled with no problem.  The only problem we encountered was the Smoking room.  Front Desk person Stated that there were none available as Cleaning Staff was off for the day and none were ready to occupy.  We were sent to a Nonsmoking room.  Very clean and comfy.  The King bed was very comfy.  Did not try the Breakfast they provided.  Our room was cleaned each day.  All went well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r398606122-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>398606122</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>The Front Desk Personnel Can Make the Difference</t>
+  </si>
+  <si>
+    <t>Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.
+I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.
+The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.
+Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.
+Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.
+One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day...Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day we had endured. Cold drinks were the order of the evening.I had told Shrini that we should be there by 8pm at the latest and thanks to Denton we got there at 7:40pm.Shrini had given us our rate over the phone that afternoon and when we arrived she was ready to check us in. She explained where everything was and would be there until 11.When we went to our room, we noticed one thing that was hard to miss. The place was FULL. Full, full. And a pickup truck with a small trailer was going to have a hard time finding a place to park considering how many contractors were in by that time.Once we got in, we went in search of the laundry room. The washers were working, but the dryers were out of order. Then we went for ice and all the machines were empty. The contractors had beat us to it. 0 for 3.In spite of all this, the room was nice, the bed was comfortable and at this particular Quality Inn the bed was exceptionally high off the ground. I had never seen that before. However, it was made well and slept well. The shower was good and hot with fairly good pressure. I enjoyed a long, hot shower. And quiet. Even though the motel was full, it was quiet in the room and I liked that.Even though things didn't work out the way I wanted them too - the staff made the difference.Thank you Shrini - you are appreciated by someone out here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.
+I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.
+The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.
+Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.
+Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.
+One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day...Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day we had endured. Cold drinks were the order of the evening.I had told Shrini that we should be there by 8pm at the latest and thanks to Denton we got there at 7:40pm.Shrini had given us our rate over the phone that afternoon and when we arrived she was ready to check us in. She explained where everything was and would be there until 11.When we went to our room, we noticed one thing that was hard to miss. The place was FULL. Full, full. And a pickup truck with a small trailer was going to have a hard time finding a place to park considering how many contractors were in by that time.Once we got in, we went in search of the laundry room. The washers were working, but the dryers were out of order. Then we went for ice and all the machines were empty. The contractors had beat us to it. 0 for 3.In spite of all this, the room was nice, the bed was comfortable and at this particular Quality Inn the bed was exceptionally high off the ground. I had never seen that before. However, it was made well and slept well. The shower was good and hot with fairly good pressure. I enjoyed a long, hot shower. And quiet. Even though the motel was full, it was quiet in the room and I liked that.Even though things didn't work out the way I wanted them too - the staff made the difference.Thank you Shrini - you are appreciated by someone out here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r393605874-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>393605874</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Reasonable price , Friendly but clueless front desk staff.</t>
+  </si>
+  <si>
+    <t>During check in the front desk staff were very friendly but a bit clueless. The room, on the first floor faced a Barbecue joint which later in the evening played loud music . The room smelled and seemed dirty. Very good tex mex location two doors down. Breakfast  was not bad and I was surprised to see the waffle grill made waffles in the shape of Texas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r373440911-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>373440911</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Third Monday Trip</t>
+  </si>
+  <si>
+    <t>Had to listen to loud music until 2am from restaurant/club right outside our door. We are older folks and it literally vibrated our room. Room smelled, my moms room the air conditioner did not work properly, breakfast not good. Room not very clean.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r367640850-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>367640850</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Get what you pay fot</t>
+  </si>
+  <si>
+    <t>Price was right for a weekend trip to a music festival in nearby Frisco. Room was adequate but could use some more thorough cleaning - mystery stains on bathroom wall/towels, questionable looking linens, some bathroom repairs needed. Friendly staff in lobby allowed me to print boarding pass for flight. Didn't bother with the breakfast but a friend got some toast there - assuming it was average at best. Loud neighbors who looked like long term guests - drinking and talking by room door at night and leaving a mess of bottles/charcoal grills(!?), and cigarette butts all around. Maybe could use better security? Local bar hanks next door is a good spot to catch live music.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Price was right for a weekend trip to a music festival in nearby Frisco. Room was adequate but could use some more thorough cleaning - mystery stains on bathroom wall/towels, questionable looking linens, some bathroom repairs needed. Friendly staff in lobby allowed me to print boarding pass for flight. Didn't bother with the breakfast but a friend got some toast there - assuming it was average at best. Loud neighbors who looked like long term guests - drinking and talking by room door at night and leaving a mess of bottles/charcoal grills(!?), and cigarette butts all around. Maybe could use better security? Local bar hanks next door is a good spot to catch live music.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r366733025-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>366733025</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Don't ever stay here</t>
+  </si>
+  <si>
+    <t>The hotel stairs leading to our room was covered in drainage from the garbage can placed in the hallway above it. The non smoking room reeked of smoke. The bar in the same parking lot shared by the hotel has a live band playing in it until midnight and you can hear the entire thing from your room due to the paper thin walls.  There are also a lot of questionable inhabitants that look like they probably live in the hotel rooms long term. It was one of the top worst hotels I've ever stayed in, and that's coming from someone who's traveled to a lot of 3rd world countries.  If I could give this place zero stars I would.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The hotel stairs leading to our room was covered in drainage from the garbage can placed in the hallway above it. The non smoking room reeked of smoke. The bar in the same parking lot shared by the hotel has a live band playing in it until midnight and you can hear the entire thing from your room due to the paper thin walls.  There are also a lot of questionable inhabitants that look like they probably live in the hotel rooms long term. It was one of the top worst hotels I've ever stayed in, and that's coming from someone who's traveled to a lot of 3rd world countries.  If I could give this place zero stars I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r339949180-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>339949180</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>A Smoky Room</t>
+  </si>
+  <si>
+    <t>I reserved a nonsmoking room (at a higher rate than a nonsmoking room) but found the room for me had previously been a smoking room. The smell lingered' and it was vile. The desk agent offered another room, but we had to rush out to a funeral so we did not change. That was a mistake, and I will never make that mistake again. The desk clerk the next morning was very kind and discounted the room rate at checkout. Kudos to the personnel at this hotel.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r336492995-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>336492995</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Room clean and comfortable. Good selection of breakfast items including fresh fruit, eggs. and meat. Breakfast was large. Well maintained. Wifi internet easy connection. Outside entrance. Heater fan kept running. Had to turn it off. Room stayed warm. North Central Expressway runs North if miss exit off US 75 have to drive north, use turn around head south, pass motel on other side of US 75, then another turn around to head north</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r331912375-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>331912375</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Crazy parking on the weekend.</t>
+  </si>
+  <si>
+    <t>Room was nice, clean and comfortable bed. Breakfast was fresh and tasty. Only problem we had was our room was on the side next to a bar. The patrons going to the bar took over the parking lot. But on the good side, Larry the Cable Guy showed up on Saturday night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r313875056-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>313875056</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Football night </t>
+  </si>
+  <si>
+    <t>Easy access  to highway . Staff friendly. Check in a breeze.  Breakfast exceptionally large selection.  Quality  for sure! Good locations easily  found  for food.  Back exit to side street if you  want to  avoid busy highway .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Easy access  to highway . Staff friendly. Check in a breeze.  Breakfast exceptionally large selection.  Quality  for sure! Good locations easily  found  for food.  Back exit to side street if you  want to  avoid busy highway .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r308342484-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>308342484</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>CLEAN AND WELL-KEPT - A LITTLE HARD TO GET TO WITH CONSTRUCTION NEARBY</t>
+  </si>
+  <si>
+    <t>We booked this hotel online and arrived to find the grounds and lobby area very nice and appealing.  The room was unusually clean and well-care for even though this is a somewhat dated property. We stayed here because of its proximity to a wedding we were attending and it served very well.  The important thing, The Bed, was great! We would go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded September 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2015</t>
+  </si>
+  <si>
+    <t>We booked this hotel online and arrived to find the grounds and lobby area very nice and appealing.  The room was unusually clean and well-care for even though this is a somewhat dated property. We stayed here because of its proximity to a wedding we were attending and it served very well.  The important thing, The Bed, was great! We would go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r304709018-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>304709018</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Not worth the price.</t>
+  </si>
+  <si>
+    <t>Check in was fine however when we arrived to the room, it reeked of cigarette smoke. I was very disappointed when I saw the size of each pillow. They were half pillows!! I paid 85.00 for half pillows??! This was unacceptable. Then I take a look in the bathroom and there's a dead bug on the floor. There's wasn't enough towels in the bathroom. They also placed the coffee maker right beside the bathroom which was unsanitary. And let me tell you about the A/C. It worked okay but the noise was irritating. It woke me several times. And the LOUD bar next door didn't help either. And the staircase to this hotel is so narrow that it only accessible in one direction. What kind of...? Will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Check in was fine however when we arrived to the room, it reeked of cigarette smoke. I was very disappointed when I saw the size of each pillow. They were half pillows!! I paid 85.00 for half pillows??! This was unacceptable. Then I take a look in the bathroom and there's a dead bug on the floor. There's wasn't enough towels in the bathroom. They also placed the coffee maker right beside the bathroom which was unsanitary. And let me tell you about the A/C. It worked okay but the noise was irritating. It woke me several times. And the LOUD bar next door didn't help either. And the staircase to this hotel is so narrow that it only accessible in one direction. What kind of...? Will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r296150309-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>296150309</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Ok but needs some updating</t>
+  </si>
+  <si>
+    <t>We stayed here for my grandson's graduation. The hotel is OK, a little tired looking but it seemed clean and quiet, except for the air conditioner which was exceedingly loud. I'm not complaining about the a/c too much, it worked and in Texas that really counts for something.I will say that being right next door to Hank's which on weekends is pretty noisy, we didn't hear anything due to the fact that we were on the inside courtyard by the pool. I guess that's the good thing about the noisy a/c, you can't hear anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for my grandson's graduation. The hotel is OK, a little tired looking but it seemed clean and quiet, except for the air conditioner which was exceedingly loud. I'm not complaining about the a/c too much, it worked and in Texas that really counts for something.I will say that being right next door to Hank's which on weekends is pretty noisy, we didn't hear anything due to the fact that we were on the inside courtyard by the pool. I guess that's the good thing about the noisy a/c, you can't hear anything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r289035454-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>289035454</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>The Stay that was Cut Short</t>
+  </si>
+  <si>
+    <t>Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. 
+Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra...Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra towels. So when I enter into the room from first glance it looked clean but the air was clearly not on. So that was 2 strikes in less than a hour. 8:00 I go to the office and ask for more towels I received 1 hand towel and was told that I would  have to wait.. So I go out and come back to the room after falling asleep I wake up and realized that the towels I asked about at 3:30 PM I still didn't have and at 4:30AM the next business day the office tells me that they don't have any towels and if I need towels that I should go and purchase or bring them next time. I did not know what to say or do, I searched the room for "REVIEW" cards but there were none, so I just decided to voice my review here...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. 
+Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra...Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra towels. So when I enter into the room from first glance it looked clean but the air was clearly not on. So that was 2 strikes in less than a hour. 8:00 I go to the office and ask for more towels I received 1 hand towel and was told that I would  have to wait.. So I go out and come back to the room after falling asleep I wake up and realized that the towels I asked about at 3:30 PM I still didn't have and at 4:30AM the next business day the office tells me that they don't have any towels and if I need towels that I should go and purchase or bring them next time. I did not know what to say or do, I searched the room for "REVIEW" cards but there were none, so I just decided to voice my review here...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r287333103-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>287333103</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Disappoinment across the board :(</t>
+  </si>
+  <si>
+    <t>Fourth of July weekend, several family members and I traveled to this hotel for a family gathering. Upon arrival, we learned that the network was down, so there was no way to check in..We had to wait a very long time. Once the network was back up, the desk clerk did not inform us but instead waited on a patron that walked in, who by the way did not have reservations. My family and I had to further wait and the clerk didn't seem the least bit apologetic for our inconvenience. Once we finally get checked into our rooms, we wished we had booked elsewhere. The bathrooms were tiny, tiny. The beds were terribly hard and uncomfortable. The air was barely keeping the room cool. There were spiders and little spider cocoons outside in the corners of our doors. Housekeeping never once came and offered to clean our rooms or give us fresh towels or anything. And we were there for 3 days. The only reason why I am not rating this stay as 'terrible' is because it is actually in a good location. We were able to get to and fro with ease and the hotel is near the location of our family gathering. Needless to say, I strongly doubt that we'll ever be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Fourth of July weekend, several family members and I traveled to this hotel for a family gathering. Upon arrival, we learned that the network was down, so there was no way to check in..We had to wait a very long time. Once the network was back up, the desk clerk did not inform us but instead waited on a patron that walked in, who by the way did not have reservations. My family and I had to further wait and the clerk didn't seem the least bit apologetic for our inconvenience. Once we finally get checked into our rooms, we wished we had booked elsewhere. The bathrooms were tiny, tiny. The beds were terribly hard and uncomfortable. The air was barely keeping the room cool. There were spiders and little spider cocoons outside in the corners of our doors. Housekeeping never once came and offered to clean our rooms or give us fresh towels or anything. And we were there for 3 days. The only reason why I am not rating this stay as 'terrible' is because it is actually in a good location. We were able to get to and fro with ease and the hotel is near the location of our family gathering. Needless to say, I strongly doubt that we'll ever be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r266127268-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>266127268</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Ordinary room, though a little rough about the edges.  Some other 'guests' were having an audible party at 3 A.M. which might have been an issue for light sleepers, but we both snore louder than drunk Texans, so it really didn't bother us.   Clerk issued tickets for breakfast, which no one then cared about come morning.   Breakfast was ordinary too.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r262344556-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>262344556</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>WORST HOTEL IN MCKINNEY</t>
+  </si>
+  <si>
+    <t>this hotel is by far the worst hotel in mckinney texas this hotel accused me of smoking in one of there rooms when it was the people next door they will over charge you and wont tell you until you check out they are very rude and there English is horrible they dont understand nothing i will not recommend anyone to this hotel for any reason roaches crawl everywhere and the sheets are very itchy and the water dosent even get hot when you want to take a shower do not go to this hotel its the worstMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>this hotel is by far the worst hotel in mckinney texas this hotel accused me of smoking in one of there rooms when it was the people next door they will over charge you and wont tell you until you check out they are very rude and there English is horrible they dont understand nothing i will not recommend anyone to this hotel for any reason roaches crawl everywhere and the sheets are very itchy and the water dosent even get hot when you want to take a shower do not go to this hotel its the worstMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r260169166-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>260169166</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Generally rated two stars on most travel sites.  But it's considerably better than other two star hotels.Relatively new or updated ; real hot breakfast included ; many rooms away from hiway noise.Actually, the breakfast is quite nice.  You'd pay $10+ at IHOP or Dennys.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Generally rated two stars on most travel sites.  But it's considerably better than other two star hotels.Relatively new or updated ; real hot breakfast included ; many rooms away from hiway noise.Actually, the breakfast is quite nice.  You'd pay $10+ at IHOP or Dennys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r247212529-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>247212529</t>
+  </si>
+  <si>
+    <t>01/03/2015</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>I'd avoid this hotel for sometime, as extensive freeway construction, make it difficult to get to. Even without the construction, it would only make 3 stars. Rooms are very basic. Breakfast okay, but you can stay at the motel 6 next door, for $ 20.00 less and have a decent breakfast out. Their wifi speed was also very slow. Not often that I rate this low.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>I'd avoid this hotel for sometime, as extensive freeway construction, make it difficult to get to. Even without the construction, it would only make 3 stars. Rooms are very basic. Breakfast okay, but you can stay at the motel 6 next door, for $ 20.00 less and have a decent breakfast out. Their wifi speed was also very slow. Not often that I rate this low.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r246447353-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>246447353</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>nice and convenient for us</t>
+  </si>
+  <si>
+    <t>Our family lives very close to here so this is the second time we stayed here.  Room was nice and clean, location near the pool was good, but too cold to swim. Wi-fi was ok, but hard to stay connected. The weather was wet and windy so the passageway from the parking lot was damp and very breezy but otherwise, enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r237240812-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>237240812</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>The staff was very friendly. They greeted us with smiles and were very sociable. The room was impressive. Very clean room greeted with a nice smell of Febreze. The sheets and towels were pure white. The bed was so comfy. Room had everything u need. Frig, freezer, iron. All the amenities. Hotel has free breakfast. Computer and printer in lobby for guests to use. Reccomend 100%</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r211663510-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>211663510</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two nights at this establishment while in McKinney for a family event. At the time we stayed (early June), there was a lot of road construction on the feeder road in front of the hotel, so be aware of this. It is easier to go to the intersection and access the hotel that way instead of the driveway on the feeder.The room was clean, but showed signs of typical wear and tear. All of the staff were friendly and helpful. The breakfast buffet was good, especially the cinnamon waffle mix available for making your own waffles.Overall, we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn H, Manager at Quality Inn, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed two nights at this establishment while in McKinney for a family event. At the time we stayed (early June), there was a lot of road construction on the feeder road in front of the hotel, so be aware of this. It is easier to go to the intersection and access the hotel that way instead of the driveway on the feeder.The room was clean, but showed signs of typical wear and tear. All of the staff were friendly and helpful. The breakfast buffet was good, especially the cinnamon waffle mix available for making your own waffles.Overall, we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r201252930-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>201252930</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Nothing special here. Kinda takes you back to the 80s.</t>
+  </si>
+  <si>
+    <t>When you are just looking for a place to sleep, this place is fine. It just hasn't been updated recently. Clean...yeah.The tub had been "refinished" somehow, maybe with white paint, and the paint was peeling. The bed was fine and with an inside room, it was quiet.Best part was the free breakfast. There was a woman in charge who cooked scrambled eggs and put together a hot breakfast and helped with the waffle machine. She also offered a running commentary that made you feel right at home in Texas! Good coffee, too. Note: this was the first motel I have visited that would not give me the "hotels.com" rate without actually having made reservations through the website. Most places will, you know, just for asking. So I paid an extra few bucks. I must be getting lazy....ha.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded April 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2014</t>
+  </si>
+  <si>
+    <t>When you are just looking for a place to sleep, this place is fine. It just hasn't been updated recently. Clean...yeah.The tub had been "refinished" somehow, maybe with white paint, and the paint was peeling. The bed was fine and with an inside room, it was quiet.Best part was the free breakfast. There was a woman in charge who cooked scrambled eggs and put together a hot breakfast and helped with the waffle machine. She also offered a running commentary that made you feel right at home in Texas! Good coffee, too. Note: this was the first motel I have visited that would not give me the "hotels.com" rate without actually having made reservations through the website. Most places will, you know, just for asking. So I paid an extra few bucks. I must be getting lazy....ha.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r193198545-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>193198545</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Jan 31st. 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was dated, creepy people in the parking lot at night. But breakfast lady was very nice.. Got home and over the next couple of days the hotel kept charging my credit card, 25.00 pet fee.( didn't have any pets) 25.00 missing towels, ( bull#%*+  no one wants the low quality towels that feel like steel wool, still trying to get my money back....beware and keep a eye on your credit card. </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r171671102-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>171671102</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel for an overnight stay</t>
+  </si>
+  <si>
+    <t>i happened to check in on a day when your computer system was down. Despite the challenges, the staff, especially shailika, was very professional, courteous and worked really hard to minimixe the poblem a dead computer surely brings. Great job!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>i happened to check in on a day when your computer system was down. Despite the challenges, the staff, especially shailika, was very professional, courteous and worked really hard to minimixe the poblem a dead computer surely brings. Great job!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r152256854-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>152256854</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Crap</t>
+  </si>
+  <si>
+    <t>Bathrooms were filthy, room was dirty, the room was small as eff, they never cleaned our room. The mean indian guy wouldnt accomoadate for our breakfast. They were pubic hairs on the toilet and the showers couldnt consistently stay at a normal temperature. Their were wet boxers in the drawer, and the doors would never lock. The worst hotel experience of my life.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r151270582-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>151270582</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Service without a smile?</t>
+  </si>
+  <si>
+    <t>On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. 
+A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”
+Suddenly there was dead silence. It seems...On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”Suddenly there was dead silence. It seems as though at least 15 seconds had passed without even a reply from her. Then she looked up and rolled her eyes at me like one of children after I told them to pick up their toys or in this case as if I asked some ridiculous request. After the long delay and those rolling eyes of hers, I just told her, “Never mind, I’m sorry that I even disturbed you.” I walk away livid! To be treated so rudely by one desk clerk after having such a wonderful experience with another was shocking. The next day we decided to check out and you'll never guess who was working? But of course, my not so favorite desk clerk whose name starts with a V and ends in nessa. I walked up to the desk and waited for a “Can I help you Sir?” But that never came. So I told her I was checking out. Then I explained that late in the evening, someone in the room next door had come in late and slammed the door so hard it caused a picture on the wall to come crashing down shattering the glass all over the room. Rather than asking me if anyone was injured, she asked me, “Are you sure you didn’t hit it or bump against the picture?” I was taken back! I said are you kidding me? Well long story short, her attitude certainly hadn't improved any from the previous day, so I bit my lip, kept my cool, and decided to write this review. In closing, our stay at the Quality Inn overall was fabulous. The room service was awesome, the rooms were clean and comfortable, it was conveniently located, and most of all the prices were very fair. Ironically, we are considering moving to Texas and I have always heard all about how warm and respectful Texans are. This was certainly a very disappointing experience for me, especially when I found out that V_____nessa was not just a desk clerk, but a manager. So who was I to complain to? Will I come back and stay at the Quality Inn next time I am in McKinney Texas? Maybe. But if I do you can bet your britches I will call ahead ahead and if she is working I WILL find another hotel and spend my hard earned money somewhere else. You can count on that!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. 
+A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”
+Suddenly there was dead silence. It seems...On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”Suddenly there was dead silence. It seems as though at least 15 seconds had passed without even a reply from her. Then she looked up and rolled her eyes at me like one of children after I told them to pick up their toys or in this case as if I asked some ridiculous request. After the long delay and those rolling eyes of hers, I just told her, “Never mind, I’m sorry that I even disturbed you.” I walk away livid! To be treated so rudely by one desk clerk after having such a wonderful experience with another was shocking. The next day we decided to check out and you'll never guess who was working? But of course, my not so favorite desk clerk whose name starts with a V and ends in nessa. I walked up to the desk and waited for a “Can I help you Sir?” But that never came. So I told her I was checking out. Then I explained that late in the evening, someone in the room next door had come in late and slammed the door so hard it caused a picture on the wall to come crashing down shattering the glass all over the room. Rather than asking me if anyone was injured, she asked me, “Are you sure you didn’t hit it or bump against the picture?” I was taken back! I said are you kidding me? Well long story short, her attitude certainly hadn't improved any from the previous day, so I bit my lip, kept my cool, and decided to write this review. In closing, our stay at the Quality Inn overall was fabulous. The room service was awesome, the rooms were clean and comfortable, it was conveniently located, and most of all the prices were very fair. Ironically, we are considering moving to Texas and I have always heard all about how warm and respectful Texans are. This was certainly a very disappointing experience for me, especially when I found out that V_____nessa was not just a desk clerk, but a manager. So who was I to complain to? Will I come back and stay at the Quality Inn next time I am in McKinney Texas? Maybe. But if I do you can bet your britches I will call ahead ahead and if she is working I WILL find another hotel and spend my hard earned money somewhere else. You can count on that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r148247030-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>148247030</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>The room was very clean. The manager on duty was pleasant. The heat in the room only kept the chill. They did offer us an upstairs room but that was not an option for my handicapped mother. The parking spaces were ice packed which also made it difficult.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>The room was very clean. The manager on duty was pleasant. The heat in the room only kept the chill. They did offer us an upstairs room but that was not an option for my handicapped mother. The parking spaces were ice packed which also made it difficult.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145929224-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>145929224</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>Awful customer service</t>
+  </si>
+  <si>
+    <t>I made a reservation on line because I needed to go down and pick up my wife's car from a body shop.  Within an hour the body shop called and said the car wouldn't be done.  At this point it was 22 and one half hours before check in.  I called to change the reservation and Vanessa refused because it was less than 24 hours before check in and a change had already been made due to a mistake.  Totally arbitrary on Vanessa's part.  She chose not to change it because of "policy" even though she had changed it once.  When you try calling the 800 numbers you get a total runaround of "choices" and it is real difficult to get a real person.  When I finally did, I got hung up on twice being forwarded to "Customer Service".  Quality has my money and I don't have a room on the day I am going to be in the state all because they refuse to make 30 seconds worth of changes in the computer.  Nice work Vanessa.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I made a reservation on line because I needed to go down and pick up my wife's car from a body shop.  Within an hour the body shop called and said the car wouldn't be done.  At this point it was 22 and one half hours before check in.  I called to change the reservation and Vanessa refused because it was less than 24 hours before check in and a change had already been made due to a mistake.  Totally arbitrary on Vanessa's part.  She chose not to change it because of "policy" even though she had changed it once.  When you try calling the 800 numbers you get a total runaround of "choices" and it is real difficult to get a real person.  When I finally did, I got hung up on twice being forwarded to "Customer Service".  Quality has my money and I don't have a room on the day I am going to be in the state all because they refuse to make 30 seconds worth of changes in the computer.  Nice work Vanessa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145855506-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>145855506</t>
+  </si>
+  <si>
+    <t>11/20/2012</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.
+Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.
+We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).
+I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn...My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn had my money. I'm writing this in November after this event in July. I've yet to see my money.I will not stay at a Quality Inn or book with Priceline if I can help it and highly advise against staying at the Quality Inn McKinney.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.
+Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.
+We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).
+I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn...My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn had my money. I'm writing this in November after this event in July. I've yet to see my money.I will not stay at a Quality Inn or book with Priceline if I can help it and highly advise against staying at the Quality Inn McKinney.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r140346548-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>140346548</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Newly Renovated, great location, wonderful front desk staff!</t>
+  </si>
+  <si>
+    <t>While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was...While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was downstairs close to the office.  He told us what room and he met us there with the key cards.  He apologized and took $10 off of our room rate for the inconvenience.  It is located right next to a bar/club and if you go outside you can hear the band playing pretty loud but in our room we could not hear it and we slept well.  I think the rate for our room after he took the $10 off was like $68, tax included.  We woke up the next morning and like I said, I-75 is just right there so we checked out and away we went.  This was our first time at this motel but after reading reviews I knew before we got there that it was newly renovated.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was...While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was downstairs close to the office.  He told us what room and he met us there with the key cards.  He apologized and took $10 off of our room rate for the inconvenience.  It is located right next to a bar/club and if you go outside you can hear the band playing pretty loud but in our room we could not hear it and we slept well.  I think the rate for our room after he took the $10 off was like $68, tax included.  We woke up the next morning and like I said, I-75 is just right there so we checked out and away we went.  This was our first time at this motel but after reading reviews I knew before we got there that it was newly renovated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r137533289-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>137533289</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel for a Good Price</t>
+  </si>
+  <si>
+    <t>I stayed at this location in early August while I was waiting on the AC unit at my home to be replaced.  I booked online and they had my keys waiting on me when I arrived.  The girl at the front desk was very nice!  The room was cool and though this building is somewhat old the room was really clean.  The bed was comfortable and the tv was good.  I'm usually not a fan of the room door opening direcly outside but I felt safe at this location.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r136575824-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>136575824</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>SUPRISINGLY GOOD!</t>
+  </si>
+  <si>
+    <t>We pulled in pretty late at the end of June 2012.  The front desk staff was helpful and considerate, giving us the directions to the easiest access point to our room.  There was a pretty active bar next door to the building, but we didn't hear a SOUND in our room!  The rooms appeared nicely updated, only problem was the air conditioner wasn't on at our arrival (and it's been DAYS of over 100 degrees) but as soon as we kicked it on, it cooled right down!  We were on the inner courtyard, on first floor and there were no distractions or noise.  Breakfast was a great perk and we would stay here again.  It's an older hotel but the appointments were newer and the staff friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We pulled in pretty late at the end of June 2012.  The front desk staff was helpful and considerate, giving us the directions to the easiest access point to our room.  There was a pretty active bar next door to the building, but we didn't hear a SOUND in our room!  The rooms appeared nicely updated, only problem was the air conditioner wasn't on at our arrival (and it's been DAYS of over 100 degrees) but as soon as we kicked it on, it cooled right down!  We were on the inner courtyard, on first floor and there were no distractions or noise.  Breakfast was a great perk and we would stay here again.  It's an older hotel but the appointments were newer and the staff friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r132326046-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>132326046</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>worst trip ever!</t>
+  </si>
+  <si>
+    <t>WORST hotel ever!! I have stayed at different hotels and this one is far the worst!! The rooms are super small. The pool was dirty. My children got kicked out of the pool eventhough they were being watched by a 16 year old while I was picking up my stuff in my room. And to top it off the housekeeper manager stole my Ipad!! Police were notified and the Ipad was never recovered. Worst experience of my life!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127773201-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>127773201</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Very friendly staff</t>
+  </si>
+  <si>
+    <t>I loved the location of this motel and I like the way it is layed out. They started the breakfast a little early every morning to accomodate our group and it was deeply appreciated. They had very clean rooms with nice beds. The staff however was my high point. The front desk personnel were so very nice and friendly. Thank You</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127770340-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>127770340</t>
+  </si>
+  <si>
+    <t>Clean and quiet but small</t>
+  </si>
+  <si>
+    <t>Right off the highway. Room is smallish but clean and quiet and they take pets. Huge points for double sheering the bed and trudge in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r114646476-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>114646476</t>
+  </si>
+  <si>
+    <t>06/22/2011</t>
+  </si>
+  <si>
+    <t>It was clean and updated.</t>
+  </si>
+  <si>
+    <t>I only have two complaints about this hotel: exterior corridor and some unfriendly staff.  The exterior corridor can't be fixed, but the staff can be trained.  The breakfast lady was rude, no questions.  Other staff members were friendly though.  The room was nice and modern.  Our bed was comfy and the couch was new.  The bathroom was very tiny though.  The kids thoroughly enjoyed the pool, and we enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r99542260-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>99542260</t>
+  </si>
+  <si>
+    <t>03/09/2011</t>
+  </si>
+  <si>
+    <t>Little Quality at this Quality Inn</t>
+  </si>
+  <si>
+    <t>I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.
+The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast....I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast.  I explained that the Choice Privileges representative in Grand Junction, CO was not aware of this.  She suggested that I talk with the manager.  The staff at the front desk said that Mr. Kumar would not be in on Monday, so I would have to wait.  When I checked out the manager said nothing to me about the fact that they had gone to a continental breakfast or the complaint I made with Choice Privileges.  He went on like nothing had occurred, but was not friendly.Having a quality motel is more that just having a nice room.  Total quality includes the breakfast offered guests and the honesty that goes with it.  This motel was far below the standards I expect from staying at a Choice Hotels establishment.  I stay at Quality Inns frequently with I travel and this motel gets a failing grade for the customer service it provides.	Joe Seiling, MSW	Major (Ret), U.S. Army	Medical Service CorpsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.
+The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast....I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast.  I explained that the Choice Privileges representative in Grand Junction, CO was not aware of this.  She suggested that I talk with the manager.  The staff at the front desk said that Mr. Kumar would not be in on Monday, so I would have to wait.  When I checked out the manager said nothing to me about the fact that they had gone to a continental breakfast or the complaint I made with Choice Privileges.  He went on like nothing had occurred, but was not friendly.Having a quality motel is more that just having a nice room.  Total quality includes the breakfast offered guests and the honesty that goes with it.  This motel was far below the standards I expect from staying at a Choice Hotels establishment.  I stay at Quality Inns frequently with I travel and this motel gets a failing grade for the customer service it provides.	Joe Seiling, MSW	Major (Ret), U.S. Army	Medical Service CorpsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r98147668-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>98147668</t>
+  </si>
+  <si>
+    <t>02/26/2011</t>
+  </si>
+  <si>
+    <t>Quality in name only......</t>
+  </si>
+  <si>
+    <t>We checked in specifically asking for a non-smoking room.  When we opened the door, we could smell the smoke, plus, there was an ash tray on the table by the door.  We went back to the front desk to ask for another room.  They said all the smoking rooms were at one end of the building, but if someone asked for an ash tray, they were given one, no matter which room they were in.  We were given another room, which also smelled like smoke, but not as strong as the first.The floor had cheerios near the corner of the bed, there were no hangers in the closet, and the toilet seat was only bolted down on one side.  There was urine where the other bolt was missing, as well as urine running down one side of the toilet and onto the floor. We won't be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in specifically asking for a non-smoking room.  When we opened the door, we could smell the smoke, plus, there was an ash tray on the table by the door.  We went back to the front desk to ask for another room.  They said all the smoking rooms were at one end of the building, but if someone asked for an ash tray, they were given one, no matter which room they were in.  We were given another room, which also smelled like smoke, but not as strong as the first.The floor had cheerios near the corner of the bed, there were no hangers in the closet, and the toilet seat was only bolted down on one side.  There was urine where the other bolt was missing, as well as urine running down one side of the toilet and onto the floor. We won't be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r38475645-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>38475645</t>
+  </si>
+  <si>
+    <t>08/22/2009</t>
+  </si>
+  <si>
+    <t>Don't expect any parking</t>
+  </si>
+  <si>
+    <t>Hotel was ok, but don't expect any parking on a night that the bar  next door has anything going on.  Patrons of the bar freely use the hotel parking leaving nowhere for the hotel customers to park. Security in the hotel parking lot refused to stop bar customers from parking in obvious hotel parking spots who were walking from their cars parked at the hotel to the bar. The desk clerk stated nothing could be done because both establishments are owned by the same person.  My family had to park down the street and walk back to the hotel.  I was given the "oh well" attitude from the hotel's staff.  I'll never stay there again and the rest of the people in town for the wedding agree... find somewhere else to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Hotel was ok, but don't expect any parking on a night that the bar  next door has anything going on.  Patrons of the bar freely use the hotel parking leaving nowhere for the hotel customers to park. Security in the hotel parking lot refused to stop bar customers from parking in obvious hotel parking spots who were walking from their cars parked at the hotel to the bar. The desk clerk stated nothing could be done because both establishments are owned by the same person.  My family had to park down the street and walk back to the hotel.  I was given the "oh well" attitude from the hotel's staff.  I'll never stay there again and the rest of the people in town for the wedding agree... find somewhere else to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r35465201-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>35465201</t>
+  </si>
+  <si>
+    <t>07/22/2009</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>I arrived late about  10:30 pm. Check in was fast and easy. I actually left my credit card at the counter and they ran it out to me. AC was on &amp; the room was cold when I arrived which is nice on those hot Texas nights. Very clean and comfortable. Sheets had that nice "bleachy" smell to them, and the bed was really firm but comfortable, nice pillows (there were 4 for my queen sized bed). Nice hot breakfast in the morning - make your own waffles, bacon, biscuits, eggs, gravy, ceral, bagels, toast, OJ, coffee. Very friendly staff.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r23524408-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>23524408</t>
+  </si>
+  <si>
+    <t>01/13/2009</t>
+  </si>
+  <si>
+    <t>What a breakfast?  WOW</t>
+  </si>
+  <si>
+    <t>We couldn't believe it when we saw the breakfast.   I even went to the desk and asked if everything was included in the free breakfast.   Talk about your full service breakfast.   Fresh waffles, Eggs, bacon / sausage, biscuit and gravy and all the cold items too.     Boy oh boy they know how to get there customers to came back.   This is an add value to any family on a budget.    Stay at this hotel you will be glad you did.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r14188826-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>14188826</t>
+  </si>
+  <si>
+    <t>03/10/2008</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>Yes the Quality Inn in Mckinney is an old motel, but it feels nice and safe.  It is very homey and the staff were so very nice and accomodating.  The continental breakfast is just like having a made to order breakfast.  I travel on business trips and stay in some very upscale hotels all over the country.   This motel was very welcoming.  I would recommend it to anyone that needed a clean, safe place to spend the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r12411299-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>12411299</t>
+  </si>
+  <si>
+    <t>01/07/2008</t>
+  </si>
+  <si>
+    <t>Nice Hotel Staff</t>
+  </si>
+  <si>
+    <t>The service at this hotel is by far the best I have seen in a long time.  These days it is hard to find someone to go above and beyond but to find 3 employees doing it was amazing.  Anytime I am in McKinney these is where I will stay.</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r6526656-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>6526656</t>
+  </si>
+  <si>
+    <t>12/30/2006</t>
+  </si>
+  <si>
+    <t>I didn't know Holiday Inn still had hotels like this</t>
+  </si>
+  <si>
+    <t>I didn't know that Holiday Inn still had old-style motels like this in their inventory. All of the rooms face out and there are no elevators, so you have to lug your suitcases up the outdoor staircases then walk down the outdoor balcony to your room. The lobby was nothing more than the check-in desk. The "restaurant" was a handful of small tables in an otherwise empty room. It's main purpose was obviously to give people a place to eat the continental breakfast, not order off the menu. The pool was outdoors. This is the kind of Holiday Inn my family stayed at on the way to our vacation destinations in the 1960s. Back then they were nice places to stay. Today, they're way below what you'd expect in this price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>I didn't know that Holiday Inn still had old-style motels like this in their inventory. All of the rooms face out and there are no elevators, so you have to lug your suitcases up the outdoor staircases then walk down the outdoor balcony to your room. The lobby was nothing more than the check-in desk. The "restaurant" was a handful of small tables in an otherwise empty room. It's main purpose was obviously to give people a place to eat the continental breakfast, not order off the menu. The pool was outdoors. This is the kind of Holiday Inn my family stayed at on the way to our vacation destinations in the 1960s. Back then they were nice places to stay. Today, they're way below what you'd expect in this price range.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1707,3237 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>150</v>
+      </c>
+      <c r="X17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>174</v>
+      </c>
+      <c r="X20" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>209</v>
+      </c>
+      <c r="X25" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>217</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>217</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>247</v>
+      </c>
+      <c r="X30" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>252</v>
+      </c>
+      <c r="K31" t="s">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>255</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>290</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>293</v>
+      </c>
+      <c r="J37" t="s">
+        <v>294</v>
+      </c>
+      <c r="K37" t="s">
+        <v>295</v>
+      </c>
+      <c r="L37" t="s">
+        <v>296</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>297</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>299</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>302</v>
+      </c>
+      <c r="L38" t="s">
+        <v>303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>304</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>106</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>317</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>329</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>331</v>
+      </c>
+      <c r="J43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K43" t="s">
+        <v>332</v>
+      </c>
+      <c r="L43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" t="s">
+        <v>341</v>
+      </c>
+      <c r="K45" t="s">
+        <v>342</v>
+      </c>
+      <c r="L45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>360</v>
+      </c>
+      <c r="J48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K48" t="s">
+        <v>362</v>
+      </c>
+      <c r="L48" t="s">
+        <v>363</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>364</v>
+      </c>
+      <c r="O48" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>365</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>366</v>
+      </c>
+      <c r="J49" t="s">
+        <v>367</v>
+      </c>
+      <c r="K49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L49" t="s">
+        <v>369</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>370</v>
+      </c>
+      <c r="O49" t="s">
+        <v>59</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K50" t="s">
+        <v>374</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>376</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>377</v>
+      </c>
+      <c r="J51" t="s">
+        <v>378</v>
+      </c>
+      <c r="K51" t="s">
+        <v>379</v>
+      </c>
+      <c r="L51" t="s">
+        <v>380</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>381</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>repost2</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Apparently Choice Hotels does not police its motel chains. Despite reserving a ground floor because of mobility issues, we were sent to the 2nd floor by a rather surly clerk. The smoking room had no ashtrays and no toilet paper.  The heat/ac unit had NO MARKINGS. Is this the fan? Is this the heat? Is this the AC? Hook on bathroom door missing with old paint showing. Dirty dried-up washcloth fell out of shower curtain when I pulled it. Water in tub will NOT shut off – continual trickle. Nights 2 &amp; 3 the door key wouldn’t work. By night 4 I just stopped by the office to get a new key before trudging up the stairs. Night 4, no housekeeping AT ALL in the room. The icing on the cake, though, is the LOUD band playing outside at the dive that is just 100 feet away. Overall, this would be a mediocre Econolodge. As for being a Quality Inn, it fails miserably. My advice is that if you are expecting a Quality Inn, don’t stop here!More</t>
   </si>
   <si>
+    <t>AKinAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r564588002-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>SeekerOfGoodValue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r562404800-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>Old property in great need of reinvestment - no, just tear it down. Chairs with rips, holes in the sofa, peeling paint, grungy, dirty, shabby. My wife would't take her shoes off because the carpet looked unclean. It was Friday and a bar across the street played country music very loud and late. Given everything else this was not the worst thing. It made us discuss bedbugs and the wisdom of eating breakfast further down the road. The night before we stayed at a Comfort Inn in Arkansas that was wonderful. How can two properties owned by the same company be so different. PS, the plug for the hair drier was broken. The highway sign was not working, and the night manager (who answered my call for directions) sent me the the wrong side of the freeway. It was a memorable stay!More</t>
   </si>
   <si>
+    <t>ZxTravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r541671622-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>george w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r539221389-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>We were coming back from Arkansas and needed to stay one night before continuing our return trip home the next day.  We called the day prior to our stay on September 24th and booked a room for one night.  When we received our  statement we were charged for two nights.  I have called the hotel three times.  Each time I am told the "manager" will call me back.  They never call.  I have asked repeatedly for the manager's name and they will not give me that persons name.  So we are now going to contest the entire charge.  We were towing a 38 ft Toyhauler RV and needed extra room to park so we have to change our room when we first checked in.  Desk staff was very nice.  However that does not compensate for charging us for two nights when we only stayed one night.  Nor does it compensate for their refusal to speak to me and refund the overcharge.More</t>
   </si>
   <si>
+    <t>Lwomack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r491368204-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>asimpleheart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r442272324-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
   </si>
   <si>
     <t>Stayed here over the Thanksgiving holiday.  Made Reservations couple weeks in advance.  Requested smoking room as Hubby does smoke.  We were planning on staying 3 nights but decided to stay 2.  Upon arrival Hubby spoke to Front Desk Clerk and the 3rd night was cancelled with no problem.  The only problem we encountered was the Smoking room.  Front Desk person Stated that there were none available as Cleaning Staff was off for the day and none were ready to occupy.  We were sent to a Nonsmoking room.  Very clean and comfy.  The King bed was very comfy.  Did not try the Breakfast they provided.  Our room was cleaned each day.  All went well.More</t>
+  </si>
+  <si>
+    <t>Pass-N-Through</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r398606122-Quality_Inn-McKinney_Texas.html</t>
@@ -331,6 +355,9 @@
 One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day...Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day we had endured. Cold drinks were the order of the evening.I had told Shrini that we should be there by 8pm at the latest and thanks to Denton we got there at 7:40pm.Shrini had given us our rate over the phone that afternoon and when we arrived she was ready to check us in. She explained where everything was and would be there until 11.When we went to our room, we noticed one thing that was hard to miss. The place was FULL. Full, full. And a pickup truck with a small trailer was going to have a hard time finding a place to park considering how many contractors were in by that time.Once we got in, we went in search of the laundry room. The washers were working, but the dryers were out of order. Then we went for ice and all the machines were empty. The contractors had beat us to it. 0 for 3.In spite of all this, the room was nice, the bed was comfortable and at this particular Quality Inn the bed was exceptionally high off the ground. I had never seen that before. However, it was made well and slept well. The shower was good and hot with fairly good pressure. I enjoyed a long, hot shower. And quiet. Even though the motel was full, it was quiet in the room and I liked that.Even though things didn't work out the way I wanted them too - the staff made the difference.Thank you Shrini - you are appreciated by someone out here.More</t>
   </si>
   <si>
+    <t>Vincent G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r393605874-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -349,6 +376,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Shirley W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r373440911-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -367,6 +397,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>BohemianDream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r367640850-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -388,6 +421,9 @@
     <t>Price was right for a weekend trip to a music festival in nearby Frisco. Room was adequate but could use some more thorough cleaning - mystery stains on bathroom wall/towels, questionable looking linens, some bathroom repairs needed. Friendly staff in lobby allowed me to print boarding pass for flight. Didn't bother with the breakfast but a friend got some toast there - assuming it was average at best. Loud neighbors who looked like long term guests - drinking and talking by room door at night and leaving a mess of bottles/charcoal grills(!?), and cigarette butts all around. Maybe could use better security? Local bar hanks next door is a good spot to catch live music.More</t>
   </si>
   <si>
+    <t>ambriah753</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r366733025-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -409,6 +445,9 @@
     <t>The hotel stairs leading to our room was covered in drainage from the garbage can placed in the hallway above it. The non smoking room reeked of smoke. The bar in the same parking lot shared by the hotel has a live band playing in it until midnight and you can hear the entire thing from your room due to the paper thin walls.  There are also a lot of questionable inhabitants that look like they probably live in the hotel rooms long term. It was one of the top worst hotels I've ever stayed in, and that's coming from someone who's traveled to a lot of 3rd world countries.  If I could give this place zero stars I would.More</t>
   </si>
   <si>
+    <t>Clark H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r339949180-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -427,6 +466,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>allfacts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r336492995-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -445,6 +487,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Michelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r331912375-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -460,6 +505,9 @@
     <t>Room was nice, clean and comfortable bed. Breakfast was fresh and tasty. Only problem we had was our room was on the side next to a bar. The patrons going to the bar took over the parking lot. But on the good side, Larry the Cable Guy showed up on Saturday night.</t>
   </si>
   <si>
+    <t>Linda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r313875056-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -487,6 +535,9 @@
     <t>Easy access  to highway . Staff friendly. Check in a breeze.  Breakfast exceptionally large selection.  Quality  for sure! Good locations easily  found  for food.  Back exit to side street if you  want to  avoid busy highway .More</t>
   </si>
   <si>
+    <t>GALLAWAYTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r308342484-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -511,6 +562,9 @@
     <t>We booked this hotel online and arrived to find the grounds and lobby area very nice and appealing.  The room was unusually clean and well-care for even though this is a somewhat dated property. We stayed here because of its proximity to a wedding we were attending and it served very well.  The important thing, The Bed, was great! We would go back.More</t>
   </si>
   <si>
+    <t>Alina G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r304709018-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -532,6 +586,9 @@
     <t>Check in was fine however when we arrived to the room, it reeked of cigarette smoke. I was very disappointed when I saw the size of each pillow. They were half pillows!! I paid 85.00 for half pillows??! This was unacceptable. Then I take a look in the bathroom and there's a dead bug on the floor. There's wasn't enough towels in the bathroom. They also placed the coffee maker right beside the bathroom which was unsanitary. And let me tell you about the A/C. It worked okay but the noise was irritating. It woke me several times. And the LOUD bar next door didn't help either. And the staircase to this hotel is so narrow that it only accessible in one direction. What kind of...? Will not be staying here again.More</t>
   </si>
   <si>
+    <t>mambomomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r296150309-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -557,6 +614,9 @@
   </si>
   <si>
     <t>We stayed here for my grandson's graduation. The hotel is OK, a little tired looking but it seemed clean and quiet, except for the air conditioner which was exceedingly loud. I'm not complaining about the a/c too much, it worked and in Texas that really counts for something.I will say that being right next door to Hank's which on weekends is pretty noisy, we didn't hear anything due to the fact that we were on the inside courtyard by the pool. I guess that's the good thing about the noisy a/c, you can't hear anything else.More</t>
+  </si>
+  <si>
+    <t>Corey W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r289035454-Quality_Inn-McKinney_Texas.html</t>
@@ -582,6 +642,9 @@
 Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra...Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra towels. So when I enter into the room from first glance it looked clean but the air was clearly not on. So that was 2 strikes in less than a hour. 8:00 I go to the office and ask for more towels I received 1 hand towel and was told that I would  have to wait.. So I go out and come back to the room after falling asleep I wake up and realized that the towels I asked about at 3:30 PM I still didn't have and at 4:30AM the next business day the office tells me that they don't have any towels and if I need towels that I should go and purchase or bring them next time. I did not know what to say or do, I searched the room for "REVIEW" cards but there were none, so I just decided to voice my review here...More</t>
   </si>
   <si>
+    <t>TeeTee0203</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r287333103-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -600,6 +663,9 @@
     <t>Fourth of July weekend, several family members and I traveled to this hotel for a family gathering. Upon arrival, we learned that the network was down, so there was no way to check in..We had to wait a very long time. Once the network was back up, the desk clerk did not inform us but instead waited on a patron that walked in, who by the way did not have reservations. My family and I had to further wait and the clerk didn't seem the least bit apologetic for our inconvenience. Once we finally get checked into our rooms, we wished we had booked elsewhere. The bathrooms were tiny, tiny. The beds were terribly hard and uncomfortable. The air was barely keeping the room cool. There were spiders and little spider cocoons outside in the corners of our doors. Housekeeping never once came and offered to clean our rooms or give us fresh towels or anything. And we were there for 3 days. The only reason why I am not rating this stay as 'terrible' is because it is actually in a good location. We were able to get to and fro with ease and the hotel is near the location of our family gathering. Needless to say, I strongly doubt that we'll ever be staying here again.More</t>
   </si>
   <si>
+    <t>Patrovski</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r266127268-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -618,6 +684,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Malcolm S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r262344556-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -642,6 +711,9 @@
     <t>this hotel is by far the worst hotel in mckinney texas this hotel accused me of smoking in one of there rooms when it was the people next door they will over charge you and wont tell you until you check out they are very rude and there English is horrible they dont understand nothing i will not recommend anyone to this hotel for any reason roaches crawl everywhere and the sheets are very itchy and the water dosent even get hot when you want to take a shower do not go to this hotel its the worstMore</t>
   </si>
   <si>
+    <t>mobiscout</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r260169166-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -666,6 +738,9 @@
     <t>Generally rated two stars on most travel sites.  But it's considerably better than other two star hotels.Relatively new or updated ; real hot breakfast included ; many rooms away from hiway noise.Actually, the breakfast is quite nice.  You'd pay $10+ at IHOP or Dennys.More</t>
   </si>
   <si>
+    <t>FishAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r247212529-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -693,6 +768,9 @@
     <t>I'd avoid this hotel for sometime, as extensive freeway construction, make it difficult to get to. Even without the construction, it would only make 3 stars. Rooms are very basic. Breakfast okay, but you can stay at the motel 6 next door, for $ 20.00 less and have a decent breakfast out. Their wifi speed was also very slow. Not often that I rate this low.More</t>
   </si>
   <si>
+    <t>rosifraz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r246447353-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -708,6 +786,9 @@
     <t>Our family lives very close to here so this is the second time we stayed here.  Room was nice and clean, location near the pool was good, but too cold to swim. Wi-fi was ok, but hard to stay connected. The weather was wet and windy so the passageway from the parking lot was damp and very breezy but otherwise, enjoyed our stay.</t>
   </si>
   <si>
+    <t>useraa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r237240812-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -726,6 +807,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Patrick N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r211663510-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -753,6 +837,9 @@
     <t>My wife and I stayed two nights at this establishment while in McKinney for a family event. At the time we stayed (early June), there was a lot of road construction on the feeder road in front of the hotel, so be aware of this. It is easier to go to the intersection and access the hotel that way instead of the driveway on the feeder.The room was clean, but showed signs of typical wear and tear. All of the staff were friendly and helpful. The breakfast buffet was good, especially the cinnamon waffle mix available for making your own waffles.Overall, we would stay here again.More</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r201252930-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -780,6 +867,9 @@
     <t>When you are just looking for a place to sleep, this place is fine. It just hasn't been updated recently. Clean...yeah.The tub had been "refinished" somehow, maybe with white paint, and the paint was peeling. The bed was fine and with an inside room, it was quiet.Best part was the free breakfast. There was a woman in charge who cooked scrambled eggs and put together a hot breakfast and helped with the waffle machine. She also offered a running commentary that made you feel right at home in Texas! Good coffee, too. Note: this was the first motel I have visited that would not give me the "hotels.com" rate without actually having made reservations through the website. Most places will, you know, just for asking. So I paid an extra few bucks. I must be getting lazy....ha.More</t>
   </si>
   <si>
+    <t>Kent W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r193198545-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -798,6 +888,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>david v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r171671102-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -825,6 +918,9 @@
     <t>i happened to check in on a day when your computer system was down. Despite the challenges, the staff, especially shailika, was very professional, courteous and worked really hard to minimixe the poblem a dead computer surely brings. Great job!!More</t>
   </si>
   <si>
+    <t>Wangwong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r152256854-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -838,6 +934,9 @@
   </si>
   <si>
     <t>Bathrooms were filthy, room was dirty, the room was small as eff, they never cleaned our room. The mean indian guy wouldnt accomoadate for our breakfast. They were pubic hairs on the toilet and the showers couldnt consistently stay at a normal temperature. Their were wet boxers in the drawer, and the doors would never lock. The worst hotel experience of my life.</t>
+  </si>
+  <si>
+    <t>ImGeorge</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r151270582-Quality_Inn-McKinney_Texas.html</t>
@@ -865,6 +964,9 @@
 Suddenly there was dead silence. It seems...On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”Suddenly there was dead silence. It seems as though at least 15 seconds had passed without even a reply from her. Then she looked up and rolled her eyes at me like one of children after I told them to pick up their toys or in this case as if I asked some ridiculous request. After the long delay and those rolling eyes of hers, I just told her, “Never mind, I’m sorry that I even disturbed you.” I walk away livid! To be treated so rudely by one desk clerk after having such a wonderful experience with another was shocking. The next day we decided to check out and you'll never guess who was working? But of course, my not so favorite desk clerk whose name starts with a V and ends in nessa. I walked up to the desk and waited for a “Can I help you Sir?” But that never came. So I told her I was checking out. Then I explained that late in the evening, someone in the room next door had come in late and slammed the door so hard it caused a picture on the wall to come crashing down shattering the glass all over the room. Rather than asking me if anyone was injured, she asked me, “Are you sure you didn’t hit it or bump against the picture?” I was taken back! I said are you kidding me? Well long story short, her attitude certainly hadn't improved any from the previous day, so I bit my lip, kept my cool, and decided to write this review. In closing, our stay at the Quality Inn overall was fabulous. The room service was awesome, the rooms were clean and comfortable, it was conveniently located, and most of all the prices were very fair. Ironically, we are considering moving to Texas and I have always heard all about how warm and respectful Texans are. This was certainly a very disappointing experience for me, especially when I found out that V_____nessa was not just a desk clerk, but a manager. So who was I to complain to? Will I come back and stay at the Quality Inn next time I am in McKinney Texas? Maybe. But if I do you can bet your britches I will call ahead ahead and if she is working I WILL find another hotel and spend my hard earned money somewhere else. You can count on that!More</t>
   </si>
   <si>
+    <t>specialk1012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r148247030-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -889,6 +991,9 @@
     <t>The room was very clean. The manager on duty was pleasant. The heat in the room only kept the chill. They did offer us an upstairs room but that was not an option for my handicapped mother. The parking spaces were ice packed which also made it difficult.More</t>
   </si>
   <si>
+    <t>Mark C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145929224-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1013,9 @@
   </si>
   <si>
     <t>I made a reservation on line because I needed to go down and pick up my wife's car from a body shop.  Within an hour the body shop called and said the car wouldn't be done.  At this point it was 22 and one half hours before check in.  I called to change the reservation and Vanessa refused because it was less than 24 hours before check in and a change had already been made due to a mistake.  Totally arbitrary on Vanessa's part.  She chose not to change it because of "policy" even though she had changed it once.  When you try calling the 800 numbers you get a total runaround of "choices" and it is real difficult to get a real person.  When I finally did, I got hung up on twice being forwarded to "Customer Service".  Quality has my money and I don't have a room on the day I am going to be in the state all because they refuse to make 30 seconds worth of changes in the computer.  Nice work Vanessa.More</t>
+  </si>
+  <si>
+    <t>PhillipH939</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145855506-Quality_Inn-McKinney_Texas.html</t>
@@ -937,6 +1045,9 @@
 I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn...My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn had my money. I'm writing this in November after this event in July. I've yet to see my money.I will not stay at a Quality Inn or book with Priceline if I can help it and highly advise against staying at the Quality Inn McKinney.More</t>
   </si>
   <si>
+    <t>RoadTripFreaks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r140346548-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1069,9 @@
     <t>While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was...While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was downstairs close to the office.  He told us what room and he met us there with the key cards.  He apologized and took $10 off of our room rate for the inconvenience.  It is located right next to a bar/club and if you go outside you can hear the band playing pretty loud but in our room we could not hear it and we slept well.  I think the rate for our room after he took the $10 off was like $68, tax included.  We woke up the next morning and like I said, I-75 is just right there so we checked out and away we went.  This was our first time at this motel but after reading reviews I knew before we got there that it was newly renovated.More</t>
   </si>
   <si>
+    <t>Jennifer J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r137533289-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1090,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>equine_traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r136575824-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -997,6 +1114,9 @@
     <t>We pulled in pretty late at the end of June 2012.  The front desk staff was helpful and considerate, giving us the directions to the easiest access point to our room.  There was a pretty active bar next door to the building, but we didn't hear a SOUND in our room!  The rooms appeared nicely updated, only problem was the air conditioner wasn't on at our arrival (and it's been DAYS of over 100 degrees) but as soon as we kicked it on, it cooled right down!  We were on the inner courtyard, on first floor and there were no distractions or noise.  Breakfast was a great perk and we would stay here again.  It's an older hotel but the appointments were newer and the staff friendly.More</t>
   </si>
   <si>
+    <t>Erica Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r132326046-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1132,9 @@
     <t>WORST hotel ever!! I have stayed at different hotels and this one is far the worst!! The rooms are super small. The pool was dirty. My children got kicked out of the pool eventhough they were being watched by a 16 year old while I was picking up my stuff in my room. And to top it off the housekeeper manager stole my Ipad!! Police were notified and the Ipad was never recovered. Worst experience of my life!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
   </si>
   <si>
+    <t>Ted N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127773201-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1153,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>jrpFlorence</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127770340-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1168,9 @@
     <t>Right off the highway. Room is smallish but clean and quiet and they take pets. Huge points for double sheering the bed and trudge in the room.</t>
   </si>
   <si>
+    <t>Louisiana_Man_88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r114646476-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1055,6 +1184,9 @@
   </si>
   <si>
     <t>I only have two complaints about this hotel: exterior corridor and some unfriendly staff.  The exterior corridor can't be fixed, but the staff can be trained.  The breakfast lady was rude, no questions.  Other staff members were friendly though.  The room was nice and modern.  Our bed was comfy and the couch was new.  The bathroom was very tiny though.  The kids thoroughly enjoyed the pool, and we enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>ufoAllen</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r99542260-Quality_Inn-McKinney_Texas.html</t>
@@ -1080,6 +1212,9 @@
 The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast....I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast.  I explained that the Choice Privileges representative in Grand Junction, CO was not aware of this.  She suggested that I talk with the manager.  The staff at the front desk said that Mr. Kumar would not be in on Monday, so I would have to wait.  When I checked out the manager said nothing to me about the fact that they had gone to a continental breakfast or the complaint I made with Choice Privileges.  He went on like nothing had occurred, but was not friendly.Having a quality motel is more that just having a nice room.  Total quality includes the breakfast offered guests and the honesty that goes with it.  This motel was far below the standards I expect from staying at a Choice Hotels establishment.  I stay at Quality Inns frequently with I travel and this motel gets a failing grade for the customer service it provides.	Joe Seiling, MSW	Major (Ret), U.S. Army	Medical Service CorpsMore</t>
   </si>
   <si>
+    <t>LaunaB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r98147668-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1233,9 @@
     <t>We checked in specifically asking for a non-smoking room.  When we opened the door, we could smell the smoke, plus, there was an ash tray on the table by the door.  We went back to the front desk to ask for another room.  They said all the smoking rooms were at one end of the building, but if someone asked for an ash tray, they were given one, no matter which room they were in.  We were given another room, which also smelled like smoke, but not as strong as the first.The floor had cheerios near the corner of the bed, there were no hangers in the closet, and the toilet seat was only bolted down on one side.  There was urine where the other bolt was missing, as well as urine running down one side of the toilet and onto the floor. We won't be staying here again.More</t>
   </si>
   <si>
+    <t>noqualityinn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r38475645-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1257,9 @@
     <t>Hotel was ok, but don't expect any parking on a night that the bar  next door has anything going on.  Patrons of the bar freely use the hotel parking leaving nowhere for the hotel customers to park. Security in the hotel parking lot refused to stop bar customers from parking in obvious hotel parking spots who were walking from their cars parked at the hotel to the bar. The desk clerk stated nothing could be done because both establishments are owned by the same person.  My family had to park down the street and walk back to the hotel.  I was given the "oh well" attitude from the hotel's staff.  I'll never stay there again and the rest of the people in town for the wedding agree... find somewhere else to sleep.More</t>
   </si>
   <si>
+    <t>duckadoodle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r35465201-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1278,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>txva228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r23524408-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1299,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>funriss13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r14188826-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1317,9 @@
     <t>Yes the Quality Inn in Mckinney is an old motel, but it feels nice and safe.  It is very homey and the staff were so very nice and accomodating.  The continental breakfast is just like having a made to order breakfast.  I travel on business trips and stay in some very upscale hotels all over the country.   This motel was very welcoming.  I would recommend it to anyone that needed a clean, safe place to spend the night.</t>
   </si>
   <si>
+    <t>dolphins1231</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r12411299-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1336,9 @@
   </si>
   <si>
     <t>November 2007</t>
+  </si>
+  <si>
+    <t>dirt_doctor</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r6526656-Quality_Inn-McKinney_Texas.html</t>
@@ -1711,43 +1864,47 @@
       <c r="A2" t="n">
         <v>1109</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174298</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1765,50 +1922,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1109</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174299</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1822,50 +1983,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1109</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174300</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1883,50 +2048,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1109</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1940,50 +2109,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1109</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2003,50 +2176,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1109</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>129685</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2060,50 +2237,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1109</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2123,50 +2304,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1109</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174304</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2184,50 +2369,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1109</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>100882</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2245,50 +2434,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1109</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174305</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2302,50 +2495,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1109</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2359,50 +2556,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1109</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2416,50 +2617,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1109</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174308</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2477,50 +2682,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1109</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125835</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2540,50 +2749,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1109</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2601,50 +2814,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1109</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>9870</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2656,56 +2873,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1109</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174309</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2723,56 +2944,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1109</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>114743</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2784,56 +3009,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1109</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174310</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2849,56 +3078,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1109</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>88314</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2918,50 +3151,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1109</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>134827</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2981,50 +3218,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1109</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174311</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3044,50 +3285,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1109</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>28714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>218</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3103,56 +3348,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1109</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174312</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3170,56 +3419,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="X25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1109</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174313</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3235,56 +3488,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1109</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174314</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3304,50 +3561,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1109</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>174315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3361,50 +3622,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1109</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>50930</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3426,56 +3691,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="X29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1109</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3497,56 +3766,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="X30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1109</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174316</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3560,50 +3833,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1109</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174317</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3625,47 +3902,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="X32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1109</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -3694,50 +3975,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1109</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174319</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3761,41 +4046,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1109</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>17169</v>
+      </c>
+      <c r="C35" t="s">
+        <v>310</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -3822,56 +4111,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1109</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>973</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3889,50 +4182,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1109</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174320</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="J37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -3956,50 +4253,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1109</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174321</v>
+      </c>
+      <c r="C38" t="s">
+        <v>335</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4023,50 +4324,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1109</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>10061</v>
+      </c>
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="J39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="K39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="O39" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4090,50 +4395,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1109</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4157,50 +4466,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1109</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>59725</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4224,50 +4537,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1109</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>77415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>364</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4291,41 +4608,45 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1109</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174323</v>
+      </c>
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -4354,41 +4675,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1109</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
@@ -4417,50 +4742,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1109</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174325</v>
+      </c>
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4484,50 +4813,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1109</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174326</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4551,50 +4884,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1109</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174327</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>2</v>
@@ -4618,50 +4955,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1109</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174328</v>
+      </c>
+      <c r="C48" t="s">
+        <v>405</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="J48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="K48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4685,50 +5026,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1109</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174329</v>
+      </c>
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="O49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4752,41 +5097,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1109</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174330</v>
+      </c>
+      <c r="C50" t="s">
+        <v>419</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -4805,50 +5154,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1109</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174331</v>
+      </c>
+      <c r="C51" t="s">
+        <v>425</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="J51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="K51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="L51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4870,50 +5223,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1109</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -4935,7 +5292,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_630.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,132 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>repost2</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r600030709-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>99278</t>
+  </si>
+  <si>
+    <t>600030709</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Hello McKinney.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed over on our 4week trip. Staff was friendly. Reception clean. Free coffee to enjoy before sign-in is completed. Room a little outdated.  Room clean. Enjoyed a swim in the pool to cool down. Bed was comfy.The groundsman probably need a talk to, clean the premisses early morning before guests wake would do wonders to the place.Breakfast was excellent and fruit fresh. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r593815357-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>593815357</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>My company booked this</t>
+  </si>
+  <si>
+    <t>Probably the most comfortable bed and pillow of any hotel I've ever stayed in. But that's were the positively ends. They rent long term to the local "working girls" so you eat breakfast among junkies. The breakfast is lacking at best, watered down gravy for 2 day old biscuits, no eggs or milk. Ended up walking to the waffle house across the street. The bar next door has signs that say it's OK to park at the hotel, so if you leave to go get some dinner out you'll be walking a ways to get to your room if you can find a spot at all. Oh and if they have a live band, which is most nights, they are so loud you may get to sleep after they close at 2 am cause the loud ac in the room doesn't even come close to drowning it out. The parking lot hasn't been swept probably EVER? This place is a dive, if my company books here again I'll refuse to travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Probably the most comfortable bed and pillow of any hotel I've ever stayed in. But that's were the positively ends. They rent long term to the local "working girls" so you eat breakfast among junkies. The breakfast is lacking at best, watered down gravy for 2 day old biscuits, no eggs or milk. Ended up walking to the waffle house across the street. The bar next door has signs that say it's OK to park at the hotel, so if you leave to go get some dinner out you'll be walking a ways to get to your room if you can find a spot at all. Oh and if they have a live band, which is most nights, they are so loud you may get to sleep after they close at 2 am cause the loud ac in the room doesn't even come close to drowning it out. The parking lot hasn't been swept probably EVER? This place is a dive, if my company books here again I'll refuse to travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r588638213-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>588638213</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Dirty and poor Management</t>
+  </si>
+  <si>
+    <t>This is a worst place you would want to stay. The stairs are very dirty. Couches in the corridor very old. Night staff is not trained. He had to ask someone on the phone to get an answer for everything. To make it worse, I got bitten by bed bug and when I told the staff late at 2am. He couldn’t do anything about it and could not move me out of the room. Also another customer who paid for 2 bed in a room was assigned to one bed with 2 Children. They were up and not taken care and the Children looks so exhausted. Worst experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r588608784-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>588608784</t>
+  </si>
+  <si>
+    <t>Weekend Stay</t>
+  </si>
+  <si>
+    <t>I don't really have any issues with this hotel, other than when they knock on your door to see if you need anything they don't give you enough time to answer the door. They almost walked in on me in my pj's!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r586662114-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>586662114</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Go somewhere else!</t>
+  </si>
+  <si>
+    <t>Upon arrival after, driving over 4 hours, we found the room to be disgusting. We arrived around 9 pm and could hear the music blaring from Hank's next door. Check in was smooth and simple, but once we found our room it continued to go down hill fast. The corridors smelled of marijuana, the music was very loud and there were random people sitting outside, honestly making me feel very uncomfortable. My husband went to find a vending machine for some drinks and quickly come back saying we had made a mistake. One of the machines had been damaged and there was furniture all over the grounds. Upon removing the bedspread we found evidence of bed bugs. The sheets were even stained! We promptly gathered our things and went right back to the office. We were thankfully given a full refund and will never step foot inside this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Upon arrival after, driving over 4 hours, we found the room to be disgusting. We arrived around 9 pm and could hear the music blaring from Hank's next door. Check in was smooth and simple, but once we found our room it continued to go down hill fast. The corridors smelled of marijuana, the music was very loud and there were random people sitting outside, honestly making me feel very uncomfortable. My husband went to find a vending machine for some drinks and quickly come back saying we had made a mistake. One of the machines had been damaged and there was furniture all over the grounds. Upon removing the bedspread we found evidence of bed bugs. The sheets were even stained! We promptly gathered our things and went right back to the office. We were thankfully given a full refund and will never step foot inside this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r573134528-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>573134528</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Great HOTEL</t>
+  </si>
+  <si>
+    <t>Staff was amazing they rooms were clean and guest services was amazing they have a pool fitness center included in the stay I just got here and they made sure I was alright in my room, asked if I needed anything I may stay another night here.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r567349431-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
-    <t>56260</t>
-  </si>
-  <si>
-    <t>99278</t>
-  </si>
-  <si>
     <t>567349431</t>
   </si>
   <si>
@@ -177,15 +288,9 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Apparently Choice Hotels does not police its motel chains. Despite reserving a ground floor because of mobility issues, we were sent to the 2nd floor by a rather surly clerk. The smoking room had no ashtrays and no toilet paper.  The heat/ac unit had NO MARKINGS. Is this the fan? Is this the heat? Is this the AC? Hook on bathroom door missing with old paint showing. Dirty dried-up washcloth fell out of shower curtain when I pulled it. Water in tub will NOT shut off – continual trickle. Nights 2 &amp; 3 the door key wouldn’t work. By night 4 I just stopped by the office to get a new key before trudging up the stairs. Night 4, no housekeeping AT ALL in the room. The icing on the cake, though, is the LOUD band playing outside at the dive that is just 100 feet away. Overall, this would be a mediocre Econolodge. As for being a Quality Inn, it fails miserably. My advice is that if you are expecting a Quality Inn, don’t stop here!More</t>
   </si>
   <si>
-    <t>AKinAZ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r564588002-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -201,12 +306,6 @@
     <t>The adage don't judge a book by its cover applies here. From the highway this motel looks good. But the when out sofa, dirty walls, and hair in the tub will set you straight. Oh, bonus, the breakfast is cold eggs, cold gravy and warm yogurt.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>SeekerOfGoodValue</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r562404800-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -225,13 +324,46 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Old property in great need of reinvestment - no, just tear it down. Chairs with rips, holes in the sofa, peeling paint, grungy, dirty, shabby. My wife would't take her shoes off because the carpet looked unclean. It was Friday and a bar across the street played country music very loud and late. Given everything else this was not the worst thing. It made us discuss bedbugs and the wisdom of eating breakfast further down the road. The night before we stayed at a Comfort Inn in Arkansas that was wonderful. How can two properties owned by the same company be so different. PS, the plug for the hair drier was broken. The highway sign was not working, and the night manager (who answered my call for directions) sent me the the wrong side of the freeway. It was a memorable stay!More</t>
   </si>
   <si>
-    <t>ZxTravel</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r553984732-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>553984732</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>I don’t typically stay at hotels without interior corridors, but I try to be loyal to Choice Hotels. This was a clean and comfortable room, despite having exterior corridors. Friendly staff at check in. Very comfortable bed and nice shower (as Quality does well). It seems they are working on upgrades as the room appeared to have new carpet and paint. I imagine they’ll paint the back of the main door next? Although I didn’t let that take away from the comfort of the room. I felt safe at this property. It was close to downtown McKinney where we went at night, and it’s an adorable downtown with lots of dining options. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I don’t typically stay at hotels without interior corridors, but I try to be loyal to Choice Hotels. This was a clean and comfortable room, despite having exterior corridors. Friendly staff at check in. Very comfortable bed and nice shower (as Quality does well). It seems they are working on upgrades as the room appeared to have new carpet and paint. I imagine they’ll paint the back of the main door next? Although I didn’t let that take away from the comfort of the room. I felt safe at this property. It was close to downtown McKinney where we went at night, and it’s an adorable downtown with lots of dining options. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r548847864-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>548847864</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Traveling through stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The price was right, the staff was friendly. There is a country bar next door that has music most nights, so the parking lot was full and we could hear the music til midnight or so, but it wasn’t too loud. We got the handicap room by default, and the restroom door doesn’t shut or lock. The overall appearance of our room is old and a little grungy but not disgusting. We went to the Waffle House down the street and they were AWESOME there. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r541671622-Quality_Inn-McKinney_Texas.html</t>
@@ -252,9 +384,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t>george w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r539221389-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -276,9 +405,6 @@
     <t>We were coming back from Arkansas and needed to stay one night before continuing our return trip home the next day.  We called the day prior to our stay on September 24th and booked a room for one night.  When we received our  statement we were charged for two nights.  I have called the hotel three times.  Each time I am told the "manager" will call me back.  They never call.  I have asked repeatedly for the manager's name and they will not give me that persons name.  So we are now going to contest the entire charge.  We were towing a 38 ft Toyhauler RV and needed extra room to park so we have to change our room when we first checked in.  Desk staff was very nice.  However that does not compensate for charging us for two nights when we only stayed one night.  Nor does it compensate for their refusal to speak to me and refund the overcharge.More</t>
   </si>
   <si>
-    <t>Lwomack</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r491368204-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -297,7 +423,40 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>asimpleheart</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r483952057-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>483952057</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>Crissy at the front desk was a gem. Stayed here two nites and our room was quiet. Maintenance responded promptly to fix a toilet that would not stop running and replace the fridge that kept "ticking." Beds and bedding were very comfy. There's a restaurant right next door which is convenient. Ample parking is available. This property is obviously an older one. The pool was not open regretfully. The free breakfast was your typical fare, nothing noteworthy.  The reasonable rate made this a pretty good deal for what you get.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r477847134-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>477847134</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for the weekend and the room was clean and peaceful, the bed was very nice and comfortable.The breakfast it was good and fresh, the staff was very polite and kind, specially Loma. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r442272324-Quality_Inn-McKinney_Texas.html</t>
@@ -319,9 +478,6 @@
   </si>
   <si>
     <t>Stayed here over the Thanksgiving holiday.  Made Reservations couple weeks in advance.  Requested smoking room as Hubby does smoke.  We were planning on staying 3 nights but decided to stay 2.  Upon arrival Hubby spoke to Front Desk Clerk and the 3rd night was cancelled with no problem.  The only problem we encountered was the Smoking room.  Front Desk person Stated that there were none available as Cleaning Staff was off for the day and none were ready to occupy.  We were sent to a Nonsmoking room.  Very clean and comfy.  The King bed was very comfy.  Did not try the Breakfast they provided.  Our room was cleaned each day.  All went well.More</t>
-  </si>
-  <si>
-    <t>Pass-N-Through</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r398606122-Quality_Inn-McKinney_Texas.html</t>
@@ -355,9 +511,6 @@
 One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day...Wednesday, July 27, 2016 - 7:45pm - It has been a long, hot, grueling trip across Texas. Denton was no fun, but we finally made it to McKinney. My husband was stopping to see his daughter, whom he hadn't seen in person in 2 years or so.I had called ahead that afternoon to check on availability of the ground floor rooms. It was fortunate for me that they had several to choose from. I chose one.The young lady that answered the phone was very kind and patient with me. She helped me reserve the room and gave me a choice of rooms to pick from and held the room until we got there.Normally, we will use either Super 8 or Quality Inn when we stay somewhere and have never really been disappointed in either. Because of the kindnesses shown oftentimes by the desk staff where we are staying, when little things don't work or are not available, I tend to be okay with that because of the desk staff. This is one of those cases.Shrini is a wonderful desk clerk. She was helpful, polite, generous, patient and accommodating with a wonderful sense of humor. She made all the difference here.One of the reasons we wanted to stay at the Quality Inn is because we needed to do laundry very badly and was in search of ice that night because of the long, hot, muggy day we had endured. Cold drinks were the order of the evening.I had told Shrini that we should be there by 8pm at the latest and thanks to Denton we got there at 7:40pm.Shrini had given us our rate over the phone that afternoon and when we arrived she was ready to check us in. She explained where everything was and would be there until 11.When we went to our room, we noticed one thing that was hard to miss. The place was FULL. Full, full. And a pickup truck with a small trailer was going to have a hard time finding a place to park considering how many contractors were in by that time.Once we got in, we went in search of the laundry room. The washers were working, but the dryers were out of order. Then we went for ice and all the machines were empty. The contractors had beat us to it. 0 for 3.In spite of all this, the room was nice, the bed was comfortable and at this particular Quality Inn the bed was exceptionally high off the ground. I had never seen that before. However, it was made well and slept well. The shower was good and hot with fairly good pressure. I enjoyed a long, hot shower. And quiet. Even though the motel was full, it was quiet in the room and I liked that.Even though things didn't work out the way I wanted them too - the staff made the difference.Thank you Shrini - you are appreciated by someone out here.More</t>
   </si>
   <si>
-    <t>Vincent G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r393605874-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -373,10 +526,40 @@
     <t>During check in the front desk staff were very friendly but a bit clueless. The room, on the first floor faced a Barbecue joint which later in the evening played loud music . The room smelled and seemed dirty. Very good tex mex location two doors down. Breakfast  was not bad and I was surprised to see the waffle grill made waffles in the shape of Texas.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Shirley W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r390431534-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>390431534</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maintenance guy walked in on me in my underwear </t>
+  </si>
+  <si>
+    <t>It was a good stay for the price. The rooms where not cleaned all the way but it was tolerable. The AC didn't work that well but the bed was ok. We paid for 3 nights and on the second day house keeping came and bothered me to leave and I explained I payed for another night the night before and they said ok, but 2hours later I just got out of the shower and was walking out of the bathroom in my underwear (mind you I never heard a knock or anything) while some stranger who happened to be the maintenance man was walking in on me and demanding that I needed to leave because it was past check out, he was not friendly and it was very uncomfortable and gave me an anxiety attack. Finally I got it sorted out with the front desk and they apologized and that was it. Other than that it was a decent stay for the right price and the swimming pool was the best part it's also 6ft. Deep MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a good stay for the price. The rooms where not cleaned all the way but it was tolerable. The AC didn't work that well but the bed was ok. We paid for 3 nights and on the second day house keeping came and bothered me to leave and I explained I payed for another night the night before and they said ok, but 2hours later I just got out of the shower and was walking out of the bathroom in my underwear (mind you I never heard a knock or anything) while some stranger who happened to be the maintenance man was walking in on me and demanding that I needed to leave because it was past check out, he was not friendly and it was very uncomfortable and gave me an anxiety attack. Finally I got it sorted out with the front desk and they apologized and that was it. Other than that it was a decent stay for the right price and the swimming pool was the best part it's also 6ft. Deep More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r375953336-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>375953336</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay. staying over and over.</t>
+  </si>
+  <si>
+    <t>Rooms are spacious with couch, table, large refrigerator,micro-wave and long bathroom vanity area. Nicely furnished.Hot breakfast includes waffles, scrambled eggs, sausage, gravy, boiled eggs, fruit, yogurt, cereal toast, juice, etc. Price is very reasonable, Staff very helpful and friendly. Highly recommend.Has two large conference rooms is needed for business meetings. Many restaurants in walking distance.I saw some negative reviews and was worried about it but it was excellent stay. I will stay here over and over.There landscaping is awesome too.  I have never seen this good landscaping in mid scale hotels.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r373440911-Quality_Inn-McKinney_Texas.html</t>
@@ -397,9 +580,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>BohemianDream</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r367640850-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -415,15 +595,9 @@
     <t>Price was right for a weekend trip to a music festival in nearby Frisco. Room was adequate but could use some more thorough cleaning - mystery stains on bathroom wall/towels, questionable looking linens, some bathroom repairs needed. Friendly staff in lobby allowed me to print boarding pass for flight. Didn't bother with the breakfast but a friend got some toast there - assuming it was average at best. Loud neighbors who looked like long term guests - drinking and talking by room door at night and leaving a mess of bottles/charcoal grills(!?), and cigarette butts all around. Maybe could use better security? Local bar hanks next door is a good spot to catch live music.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>Price was right for a weekend trip to a music festival in nearby Frisco. Room was adequate but could use some more thorough cleaning - mystery stains on bathroom wall/towels, questionable looking linens, some bathroom repairs needed. Friendly staff in lobby allowed me to print boarding pass for flight. Didn't bother with the breakfast but a friend got some toast there - assuming it was average at best. Loud neighbors who looked like long term guests - drinking and talking by room door at night and leaving a mess of bottles/charcoal grills(!?), and cigarette butts all around. Maybe could use better security? Local bar hanks next door is a good spot to catch live music.More</t>
   </si>
   <si>
-    <t>ambriah753</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r366733025-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -445,7 +619,43 @@
     <t>The hotel stairs leading to our room was covered in drainage from the garbage can placed in the hallway above it. The non smoking room reeked of smoke. The bar in the same parking lot shared by the hotel has a live band playing in it until midnight and you can hear the entire thing from your room due to the paper thin walls.  There are also a lot of questionable inhabitants that look like they probably live in the hotel rooms long term. It was one of the top worst hotels I've ever stayed in, and that's coming from someone who's traveled to a lot of 3rd world countries.  If I could give this place zero stars I would.More</t>
   </si>
   <si>
-    <t>Clark H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r366077196-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>366077196</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Mrs. Taylor</t>
+  </si>
+  <si>
+    <t>A totally disappointing hotel stay of three nights.  One day our room was not serviced in any way.  Late afternoon my husband went to the desk and reported that our room had not been made up or cleaned and he was told that it would be taken care of but when we returned to the room several hours later nothing had been done.   We also observed one of the maids take the top off of a cereal dispenser (that barely worked) and touch the cereal with one hand while pouring from the container.  Certainly not safe or appetizing food handling. The hotel is in disrepair and there were several guests who left items in the walkways, children running wild in courtyard, walkways, and breakfast area. Management seems to have no care for the state of the property. We were very uncomfortable at this property and will not stay there again even though we like the location of the property for our visits several times a year.MoreShow less</t>
+  </si>
+  <si>
+    <t>A totally disappointing hotel stay of three nights.  One day our room was not serviced in any way.  Late afternoon my husband went to the desk and reported that our room had not been made up or cleaned and he was told that it would be taken care of but when we returned to the room several hours later nothing had been done.   We also observed one of the maids take the top off of a cereal dispenser (that barely worked) and touch the cereal with one hand while pouring from the container.  Certainly not safe or appetizing food handling. The hotel is in disrepair and there were several guests who left items in the walkways, children running wild in courtyard, walkways, and breakfast area. Management seems to have no care for the state of the property. We were very uncomfortable at this property and will not stay there again even though we like the location of the property for our visits several times a year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r345493943-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>345493943</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE FRIDAY OR SATURDAY!!!!</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend. Our room was located first floor close to Hanks bar.The strong base was heard to our room into the late night. After the music stopped and the bar closed  very loud traffic at the parking lot started. saturday morning we asked to change our room to the other side of motel. We were offered a room with totally broken exterior window. We did not accept.Housekeeping came while we were in the room. Asked them to come back half an hour later. They never did. After returning to our room in the evening the front desk did not have all the items we requested for the room(ie coffee )This happened  in February, we don.t know how often music is played throughout the year.Parking is also open for Hanks bar customers so most spots were taken by them at night we had to park way in the back away from our room. If you want to sleep, do NOT stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>We stayed here over the weekend. Our room was located first floor close to Hanks bar.The strong base was heard to our room into the late night. After the music stopped and the bar closed  very loud traffic at the parking lot started. saturday morning we asked to change our room to the other side of motel. We were offered a room with totally broken exterior window. We did not accept.Housekeeping came while we were in the room. Asked them to come back half an hour later. They never did. After returning to our room in the evening the front desk did not have all the items we requested for the room(ie coffee )This happened  in February, we don.t know how often music is played throughout the year.Parking is also open for Hanks bar customers so most spots were taken by them at night we had to park way in the back away from our room. If you want to sleep, do NOT stay hereMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r339949180-Quality_Inn-McKinney_Texas.html</t>
@@ -466,9 +676,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>allfacts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r336492995-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -487,9 +694,6 @@
     <t>December 2015</t>
   </si>
   <si>
-    <t>Michelle M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r331912375-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -505,7 +709,46 @@
     <t>Room was nice, clean and comfortable bed. Breakfast was fresh and tasty. Only problem we had was our room was on the side next to a bar. The patrons going to the bar took over the parking lot. But on the good side, Larry the Cable Guy showed up on Saturday night.</t>
   </si>
   <si>
-    <t>Linda M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r320171318-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>320171318</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Old, but comfortable</t>
+  </si>
+  <si>
+    <t>Very nice for the price. Room was clean and comfortable. I generally prefer motels with interior entry, but this was very safe, and quiet, despite the exterior entry doors. The staff was friendly, and the breakfast was about average. All in all, a good value for the price, and I would stay again.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r315283487-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>315283487</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My husband my son and I stayed in this property it was very nice the rooms were cleans and the breakfast was great the gm took the time to visit with me and my family I felt very relax the swimming pool was awesome very clean there were also towels available I would definitely give this hotel 5 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>My husband my son and I stayed in this property it was very nice the rooms were cleans and the breakfast was great the gm took the time to visit with me and my family I felt very relax the swimming pool was awesome very clean there were also towels available I would definitely give this hotel 5 starsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r313875056-Quality_Inn-McKinney_Texas.html</t>
@@ -526,18 +769,9 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded October 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded October 6, 2015</t>
-  </si>
-  <si>
     <t>Easy access  to highway . Staff friendly. Check in a breeze.  Breakfast exceptionally large selection.  Quality  for sure! Good locations easily  found  for food.  Back exit to side street if you  want to  avoid busy highway .More</t>
   </si>
   <si>
-    <t>GALLAWAYTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r308342484-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -562,9 +796,6 @@
     <t>We booked this hotel online and arrived to find the grounds and lobby area very nice and appealing.  The room was unusually clean and well-care for even though this is a somewhat dated property. We stayed here because of its proximity to a wedding we were attending and it served very well.  The important thing, The Bed, was great! We would go back.More</t>
   </si>
   <si>
-    <t>Alina G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r304709018-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -586,7 +817,52 @@
     <t>Check in was fine however when we arrived to the room, it reeked of cigarette smoke. I was very disappointed when I saw the size of each pillow. They were half pillows!! I paid 85.00 for half pillows??! This was unacceptable. Then I take a look in the bathroom and there's a dead bug on the floor. There's wasn't enough towels in the bathroom. They also placed the coffee maker right beside the bathroom which was unsanitary. And let me tell you about the A/C. It worked okay but the noise was irritating. It woke me several times. And the LOUD bar next door didn't help either. And the staircase to this hotel is so narrow that it only accessible in one direction. What kind of...? Will not be staying here again.More</t>
   </si>
   <si>
-    <t>mambomomma</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r302510591-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>302510591</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Good stop</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and I'm glad we stopped.   The price is very reasonable and the rooms are large and very clean.  There is a hot breakfast in the morning.  Very nice pool area.  I've stayed at several Quality Inns and they have been consistently nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for one night and I'm glad we stopped.   The price is very reasonable and the rooms are large and very clean.  There is a hot breakfast in the morning.  Very nice pool area.  I've stayed at several Quality Inns and they have been consistently nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r297909443-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>297909443</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Our lil get away</t>
+  </si>
+  <si>
+    <t>We really enjoyed our night here at the hotel the manager was very nice we enjoyed our room very clean the pool is large and 6ft deep the water was nice and hot our a/c worked very well they also offered a very nice breakfast the chocolate waffles were great anytime we come back to visit we will definitely stay here we give them 5 starsMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>We really enjoyed our night here at the hotel the manager was very nice we enjoyed our room very clean the pool is large and 6ft deep the water was nice and hot our a/c worked very well they also offered a very nice breakfast the chocolate waffles were great anytime we come back to visit we will definitely stay here we give them 5 starsMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r296150309-Quality_Inn-McKinney_Texas.html</t>
@@ -607,16 +883,7 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded August 12, 2015</t>
-  </si>
-  <si>
-    <t>Responded August 12, 2015</t>
-  </si>
-  <si>
     <t>We stayed here for my grandson's graduation. The hotel is OK, a little tired looking but it seemed clean and quiet, except for the air conditioner which was exceedingly loud. I'm not complaining about the a/c too much, it worked and in Texas that really counts for something.I will say that being right next door to Hank's which on weekends is pretty noisy, we didn't hear anything due to the fact that we were on the inside courtyard by the pool. I guess that's the good thing about the noisy a/c, you can't hear anything else.More</t>
-  </si>
-  <si>
-    <t>Corey W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r289035454-Quality_Inn-McKinney_Texas.html</t>
@@ -642,9 +909,6 @@
 Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra...Anytime I need to check into a hotel, I never think twice about checking into the Quality Inn in McKinney. Its convent, clean and always accommodating to the point where I never want to leave. But my last stay was very disappointing to the point where I had to purchase things that should be afford when checking into the room. Prior to, I made reservations online and in the special request I asked that extra towels be in the room and that the air conditioning unit be on so that the room could already be cool. The weather in McKinney was reaching the 90's and just didn't want to have to be uncomfortable more than I was because my air condition unit in my apartment had went out. Once I arrived and check in my room, I asked about the items and was questioned on why I needed them and then I was told that they didn't have any clean at 3:00 and once house keeping finished that I would receive extra towels. Now since my unit was out the shower that I took that morning at home was not working for me anymore, so i needed to freshen up and relax. I am a average size guy but the towels in the hotel are usually smaller and I would need to use the two that are standard for just one shower. So that's why I was asking for extra towels. So when I enter into the room from first glance it looked clean but the air was clearly not on. So that was 2 strikes in less than a hour. 8:00 I go to the office and ask for more towels I received 1 hand towel and was told that I would  have to wait.. So I go out and come back to the room after falling asleep I wake up and realized that the towels I asked about at 3:30 PM I still didn't have and at 4:30AM the next business day the office tells me that they don't have any towels and if I need towels that I should go and purchase or bring them next time. I did not know what to say or do, I searched the room for "REVIEW" cards but there were none, so I just decided to voice my review here...More</t>
   </si>
   <si>
-    <t>TeeTee0203</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r287333103-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -663,7 +927,46 @@
     <t>Fourth of July weekend, several family members and I traveled to this hotel for a family gathering. Upon arrival, we learned that the network was down, so there was no way to check in..We had to wait a very long time. Once the network was back up, the desk clerk did not inform us but instead waited on a patron that walked in, who by the way did not have reservations. My family and I had to further wait and the clerk didn't seem the least bit apologetic for our inconvenience. Once we finally get checked into our rooms, we wished we had booked elsewhere. The bathrooms were tiny, tiny. The beds were terribly hard and uncomfortable. The air was barely keeping the room cool. There were spiders and little spider cocoons outside in the corners of our doors. Housekeeping never once came and offered to clean our rooms or give us fresh towels or anything. And we were there for 3 days. The only reason why I am not rating this stay as 'terrible' is because it is actually in a good location. We were able to get to and fro with ease and the hotel is near the location of our family gathering. Needless to say, I strongly doubt that we'll ever be staying here again.More</t>
   </si>
   <si>
-    <t>Patrovski</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r278265747-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>278265747</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Great value for the dollar, you can bring your pets and staff is extremely nice.</t>
+  </si>
+  <si>
+    <t>I needed a last minute place to stay while my house was being renovated and I needed a place that accepts pets.  This was one of two hotels that allows pets and the website was more user friendly than the other one, so I booked a room.  The staff was extremely accommodating.  Nice and friendly and always trying to please.  This is a perfunctory chain hotel right off the freeway.  There seemed to be a mix of truckers and families staying there.  The grounds are nicely kept and manicured.  If you can request a poolside room, do so.  That is the best view with a large grassy knoll that you can walk the dogs, let the kids play or as I say, a few people brought small grills and grilled dinner.  The pool is nice, clean and neat.  There is a great burger joint right next to it called Hanks.  Great food,  but they have live bands on the weekend.  The hotel clerk was very accommodating and put me, my parents (who were visiting) and my dogs on a side of the hotel that was not adjacent to the restaurant so we wouldn't be bothered by any noise (which really wasn't an issue) from the live band.  The cleaning staff was also very accommodating when we needed to get supplies like coffee, sheets, towels, etc.  Since I had my two dogs with me, I really couldn't let them into clean...I needed a last minute place to stay while my house was being renovated and I needed a place that accepts pets.  This was one of two hotels that allows pets and the website was more user friendly than the other one, so I booked a room.  The staff was extremely accommodating.  Nice and friendly and always trying to please.  This is a perfunctory chain hotel right off the freeway.  There seemed to be a mix of truckers and families staying there.  The grounds are nicely kept and manicured.  If you can request a poolside room, do so.  That is the best view with a large grassy knoll that you can walk the dogs, let the kids play or as I say, a few people brought small grills and grilled dinner.  The pool is nice, clean and neat.  There is a great burger joint right next to it called Hanks.  Great food,  but they have live bands on the weekend.  The hotel clerk was very accommodating and put me, my parents (who were visiting) and my dogs on a side of the hotel that was not adjacent to the restaurant so we wouldn't be bothered by any noise (which really wasn't an issue) from the live band.  The cleaning staff was also very accommodating when we needed to get supplies like coffee, sheets, towels, etc.  Since I had my two dogs with me, I really couldn't let them into clean so they made an effort to otherwise keep us stocked with the necessary supplies.  I'll emphasize that this isn't a fancy hotel, but it is clean and well kept and the staff was incredibly nice.  I am sold and would be glad to put my family/relatives up here in the future should I need somewhere to overflow out of town guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>I needed a last minute place to stay while my house was being renovated and I needed a place that accepts pets.  This was one of two hotels that allows pets and the website was more user friendly than the other one, so I booked a room.  The staff was extremely accommodating.  Nice and friendly and always trying to please.  This is a perfunctory chain hotel right off the freeway.  There seemed to be a mix of truckers and families staying there.  The grounds are nicely kept and manicured.  If you can request a poolside room, do so.  That is the best view with a large grassy knoll that you can walk the dogs, let the kids play or as I say, a few people brought small grills and grilled dinner.  The pool is nice, clean and neat.  There is a great burger joint right next to it called Hanks.  Great food,  but they have live bands on the weekend.  The hotel clerk was very accommodating and put me, my parents (who were visiting) and my dogs on a side of the hotel that was not adjacent to the restaurant so we wouldn't be bothered by any noise (which really wasn't an issue) from the live band.  The cleaning staff was also very accommodating when we needed to get supplies like coffee, sheets, towels, etc.  Since I had my two dogs with me, I really couldn't let them into clean...I needed a last minute place to stay while my house was being renovated and I needed a place that accepts pets.  This was one of two hotels that allows pets and the website was more user friendly than the other one, so I booked a room.  The staff was extremely accommodating.  Nice and friendly and always trying to please.  This is a perfunctory chain hotel right off the freeway.  There seemed to be a mix of truckers and families staying there.  The grounds are nicely kept and manicured.  If you can request a poolside room, do so.  That is the best view with a large grassy knoll that you can walk the dogs, let the kids play or as I say, a few people brought small grills and grilled dinner.  The pool is nice, clean and neat.  There is a great burger joint right next to it called Hanks.  Great food,  but they have live bands on the weekend.  The hotel clerk was very accommodating and put me, my parents (who were visiting) and my dogs on a side of the hotel that was not adjacent to the restaurant so we wouldn't be bothered by any noise (which really wasn't an issue) from the live band.  The cleaning staff was also very accommodating when we needed to get supplies like coffee, sheets, towels, etc.  Since I had my two dogs with me, I really couldn't let them into clean so they made an effort to otherwise keep us stocked with the necessary supplies.  I'll emphasize that this isn't a fancy hotel, but it is clean and well kept and the staff was incredibly nice.  I am sold and would be glad to put my family/relatives up here in the future should I need somewhere to overflow out of town guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r271524164-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>271524164</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>This place was better than I thought it would be. The room was comfortable and the bed was very comfortable. Breakfast was good. Wifi signal was strong. The pool area was very nice and clean. Front desk staff was very inviting and very nice. Would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r266127268-Quality_Inn-McKinney_Texas.html</t>
@@ -684,9 +987,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>Malcolm S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r262344556-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -711,9 +1011,6 @@
     <t>this hotel is by far the worst hotel in mckinney texas this hotel accused me of smoking in one of there rooms when it was the people next door they will over charge you and wont tell you until you check out they are very rude and there English is horrible they dont understand nothing i will not recommend anyone to this hotel for any reason roaches crawl everywhere and the sheets are very itchy and the water dosent even get hot when you want to take a shower do not go to this hotel its the worstMore</t>
   </si>
   <si>
-    <t>mobiscout</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r260169166-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -738,7 +1035,58 @@
     <t>Generally rated two stars on most travel sites.  But it's considerably better than other two star hotels.Relatively new or updated ; real hot breakfast included ; many rooms away from hiway noise.Actually, the breakfast is quite nice.  You'd pay $10+ at IHOP or Dennys.More</t>
   </si>
   <si>
-    <t>FishAZ</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r253246570-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>253246570</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Great value - convenient location</t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant surprise.  I have stayed at many hotels in McKinney and chose this one at the last moment.  My wife and I stayed for 2 nights.  While the price made me a little nervous, once we checked in we found that this was a great value.  The room was very clean and quiet.  There is major highway construction all through McKinney on Hwy 75.  So, there is additional noise and some of the exits are blocked off.  The breakfast both mornings was really good.  There is a varied choice of cereal, fresh fruit, waffles with toppings, biscuits, scrambled eggs, meat (ham/sausauge), yogurt, etc.  The dining area is very large and has a big screen tv.  The attendant kept it very well stocked and clean. This was a very positive experience and we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was a pleasant surprise.  I have stayed at many hotels in McKinney and chose this one at the last moment.  My wife and I stayed for 2 nights.  While the price made me a little nervous, once we checked in we found that this was a great value.  The room was very clean and quiet.  There is major highway construction all through McKinney on Hwy 75.  So, there is additional noise and some of the exits are blocked off.  The breakfast both mornings was really good.  There is a varied choice of cereal, fresh fruit, waffles with toppings, biscuits, scrambled eggs, meat (ham/sausauge), yogurt, etc.  The dining area is very large and has a big screen tv.  The attendant kept it very well stocked and clean. This was a very positive experience and we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r252262014-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>252262014</t>
+  </si>
+  <si>
+    <t>02/02/2015</t>
+  </si>
+  <si>
+    <t>Barely adequate place to stay</t>
+  </si>
+  <si>
+    <t>I stayed there for one night before a morning appearance in the Collin County courthouse.  The room was fine and the bed was comfortable.  However, the heating mechanism was a blower near the bed and the noise was unpleasant.  There is a grill and bar fright next door, but unfortunately arriving at 10 PM it was too late to eat there -- but not too late to hear loud music in my room; the music, I was told, runs until 11:30 every night from Wednesday through Saturday.  And the Internet was down -- not just the wi-fi, but the hotel's Internet service, so they could not even check me in properly, I could not not check in for my flight home.  Breakfast was acceptableIf I have any more appearances for this case, I'll be staying elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there for one night before a morning appearance in the Collin County courthouse.  The room was fine and the bed was comfortable.  However, the heating mechanism was a blower near the bed and the noise was unpleasant.  There is a grill and bar fright next door, but unfortunately arriving at 10 PM it was too late to eat there -- but not too late to hear loud music in my room; the music, I was told, runs until 11:30 every night from Wednesday through Saturday.  And the Internet was down -- not just the wi-fi, but the hotel's Internet service, so they could not even check me in properly, I could not not check in for my flight home.  Breakfast was acceptableIf I have any more appearances for this case, I'll be staying elsewhereMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r247212529-Quality_Inn-McKinney_Texas.html</t>
@@ -759,18 +1107,9 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded February 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 6, 2015</t>
-  </si>
-  <si>
     <t>I'd avoid this hotel for sometime, as extensive freeway construction, make it difficult to get to. Even without the construction, it would only make 3 stars. Rooms are very basic. Breakfast okay, but you can stay at the motel 6 next door, for $ 20.00 less and have a decent breakfast out. Their wifi speed was also very slow. Not often that I rate this low.More</t>
   </si>
   <si>
-    <t>rosifraz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r246447353-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -786,9 +1125,6 @@
     <t>Our family lives very close to here so this is the second time we stayed here.  Room was nice and clean, location near the pool was good, but too cold to swim. Wi-fi was ok, but hard to stay connected. The weather was wet and windy so the passageway from the parking lot was damp and very breezy but otherwise, enjoyed our stay.</t>
   </si>
   <si>
-    <t>useraa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r237240812-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -807,7 +1143,40 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Patrick N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r217143545-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>217143545</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>We are Repeat Customers</t>
+  </si>
+  <si>
+    <t>We have stayed at this Inn twice in the last year. The staff is very friendly. The only complaint is that you better be sure to wear socks or shoes in your room. The carpet is in need of cleaning badly. The maid service was fantastic! Breakfast is good and filling. The pool was refreshing. We will be back to stay, it is handy when we visit our son and family.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r214170048-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>214170048</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Watch your credit card</t>
+  </si>
+  <si>
+    <t>We were forced to stay in a hotel for the night because the air conditioning in our rental home was not working.  We needed to find a hotel that was close to our house and took pets (we have one 40 pound dog) because of our dog we didn't want her in our house that was over 90 degrees by 5:00 p.m.  We reserved the room thru the 800 number with our credit card and put the $25.00 pet fee on our debit card.  When we checked out the next morning we realized that the hotel had charged us two separate $25.00 fees, I talked to the lady behind the counter and she said she would take care of it---still not taken care of yet.  Guess, I will be driving down there again tomorrow to talk to a manager. Our air conditioning is still not fixed, but we will NOT be staying there tonightMoreShow less</t>
+  </si>
+  <si>
+    <t>We were forced to stay in a hotel for the night because the air conditioning in our rental home was not working.  We needed to find a hotel that was close to our house and took pets (we have one 40 pound dog) because of our dog we didn't want her in our house that was over 90 degrees by 5:00 p.m.  We reserved the room thru the 800 number with our credit card and put the $25.00 pet fee on our debit card.  When we checked out the next morning we realized that the hotel had charged us two separate $25.00 fees, I talked to the lady behind the counter and she said she would take care of it---still not taken care of yet.  Guess, I will be driving down there again tomorrow to talk to a manager. Our air conditioning is still not fixed, but we will NOT be staying there tonightMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r211663510-Quality_Inn-McKinney_Texas.html</t>
@@ -837,9 +1206,6 @@
     <t>My wife and I stayed two nights at this establishment while in McKinney for a family event. At the time we stayed (early June), there was a lot of road construction on the feeder road in front of the hotel, so be aware of this. It is easier to go to the intersection and access the hotel that way instead of the driveway on the feeder.The room was clean, but showed signs of typical wear and tear. All of the staff were friendly and helpful. The breakfast buffet was good, especially the cinnamon waffle mix available for making your own waffles.Overall, we would stay here again.More</t>
   </si>
   <si>
-    <t>Michael M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r201252930-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -867,9 +1233,6 @@
     <t>When you are just looking for a place to sleep, this place is fine. It just hasn't been updated recently. Clean...yeah.The tub had been "refinished" somehow, maybe with white paint, and the paint was peeling. The bed was fine and with an inside room, it was quiet.Best part was the free breakfast. There was a woman in charge who cooked scrambled eggs and put together a hot breakfast and helped with the waffle machine. She also offered a running commentary that made you feel right at home in Texas! Good coffee, too. Note: this was the first motel I have visited that would not give me the "hotels.com" rate without actually having made reservations through the website. Most places will, you know, just for asking. So I paid an extra few bucks. I must be getting lazy....ha.More</t>
   </si>
   <si>
-    <t>Kent W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r193198545-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -888,7 +1251,37 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>david v</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r188711500-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>188711500</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>We checked in on a Thursday, and had  a little trouble finding the room. The staff was polite and helpful, but directed us the wrong way. The room was OK, but it sounds like I should have checked things out a bit more. The breakfast was OK. The gravy was like paste, and the Orange juice machine wouldn't shut off, and flooded orange juice on the floor. Hank's is next door, and they have good B-BQue. A few good eating places near by.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r181102064-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>181102064</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Would have rated it zero if I could</t>
+  </si>
+  <si>
+    <t>Checked in evening of October 11th, 2013.  One of the dirtiest hotels I've ever stayed at. Paint on door peeled, tub dirty, counters dirty, etc.  I use a CPAP machine and the electrical outlet stopped working in the middle of the night, terrible night's rest, fixed that issue by utilizing another outlet but I was wide awake by the time I moved machine.  Breakfast was cold, inadequately stocked.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r171671102-Quality_Inn-McKinney_Texas.html</t>
@@ -918,9 +1311,6 @@
     <t>i happened to check in on a day when your computer system was down. Despite the challenges, the staff, especially shailika, was very professional, courteous and worked really hard to minimixe the poblem a dead computer surely brings. Great job!!More</t>
   </si>
   <si>
-    <t>Wangwong</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r152256854-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -934,9 +1324,6 @@
   </si>
   <si>
     <t>Bathrooms were filthy, room was dirty, the room was small as eff, they never cleaned our room. The mean indian guy wouldnt accomoadate for our breakfast. They were pubic hairs on the toilet and the showers couldnt consistently stay at a normal temperature. Their were wet boxers in the drawer, and the doors would never lock. The worst hotel experience of my life.</t>
-  </si>
-  <si>
-    <t>ImGeorge</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r151270582-Quality_Inn-McKinney_Texas.html</t>
@@ -964,7 +1351,49 @@
 Suddenly there was dead silence. It seems...On a recent trip to McKinney Texas, my family had the occasion to stay at the Quality Inn. We arrived approximately at 2:30 in the early morning after a grueling 21 hour drive from out of state. We were greeted by a nice young lady who moved us quickly through the process and handed us our room key with a smile. As we prepared to head towards our room I asked her if they had a water fountain or a vending machine that sold bottles of water. So she directed me to the dining room across the hall and told us to help ourselves with any coffee, tea, juice or water. She was very kind. A couple of days had past and rather than find another hotel, we decided to extend our stay. So I walked into the lobby and noticed there was a different clerk working. That morning, we were scheduled to meet a Realtor in the lobby and unfortunately we had missed the Free Continental Breakfast the hotel offers. So I had gone to the nearest fast food restaurant to grab a quick bite to bring it back to the hotel. With food in hand and not wanting to eat in the front lobby, I asked the desk clerk, “Excuse me, if there is someone asking for a George, could you please tell her that we were in the dining area?”Suddenly there was dead silence. It seems as though at least 15 seconds had passed without even a reply from her. Then she looked up and rolled her eyes at me like one of children after I told them to pick up their toys or in this case as if I asked some ridiculous request. After the long delay and those rolling eyes of hers, I just told her, “Never mind, I’m sorry that I even disturbed you.” I walk away livid! To be treated so rudely by one desk clerk after having such a wonderful experience with another was shocking. The next day we decided to check out and you'll never guess who was working? But of course, my not so favorite desk clerk whose name starts with a V and ends in nessa. I walked up to the desk and waited for a “Can I help you Sir?” But that never came. So I told her I was checking out. Then I explained that late in the evening, someone in the room next door had come in late and slammed the door so hard it caused a picture on the wall to come crashing down shattering the glass all over the room. Rather than asking me if anyone was injured, she asked me, “Are you sure you didn’t hit it or bump against the picture?” I was taken back! I said are you kidding me? Well long story short, her attitude certainly hadn't improved any from the previous day, so I bit my lip, kept my cool, and decided to write this review. In closing, our stay at the Quality Inn overall was fabulous. The room service was awesome, the rooms were clean and comfortable, it was conveniently located, and most of all the prices were very fair. Ironically, we are considering moving to Texas and I have always heard all about how warm and respectful Texans are. This was certainly a very disappointing experience for me, especially when I found out that V_____nessa was not just a desk clerk, but a manager. So who was I to complain to? Will I come back and stay at the Quality Inn next time I am in McKinney Texas? Maybe. But if I do you can bet your britches I will call ahead ahead and if she is working I WILL find another hotel and spend my hard earned money somewhere else. You can count on that!More</t>
   </si>
   <si>
-    <t>specialk1012</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r150155300-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>150155300</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Nice, clean motel with great service!</t>
+  </si>
+  <si>
+    <t>My wife and I spent a night in this Quality Inn, in McKinney, Tx.  The room was spotless, the bed was very comfortable- in fact, I haven't slept that well in a very long time.  I normally am up before 5am, but I was so comfortable, I slept in 'til almost 9!I made a couple trips to the front desk, and was greeted by the manager, Ms Vanessa Segundo.  What a wonderfully pleasant woman... she always had a big smile for me.  I asked for some cream for coffee, and also asked if I could possibly trade in the two "decaf" coffee packets for regular coffee, explaining that my wife and I drink coffee pretty frequently, but we don't care for decaf.  Vanessa not only traded my decaf for regular- she even gave me a handful of extras- something she certainly didn't have to do, but did so anyway, and with a great attitude, smile and personality.  The next morning, for breakfast, Vanessa even helped me make a waffle for my wife.  (I'd never made one before)  I would highly recommend the Quality Inn, in McKinney Tx to anyone who wants a great, friendly experience- without breaking the bank!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I spent a night in this Quality Inn, in McKinney, Tx.  The room was spotless, the bed was very comfortable- in fact, I haven't slept that well in a very long time.  I normally am up before 5am, but I was so comfortable, I slept in 'til almost 9!I made a couple trips to the front desk, and was greeted by the manager, Ms Vanessa Segundo.  What a wonderfully pleasant woman... she always had a big smile for me.  I asked for some cream for coffee, and also asked if I could possibly trade in the two "decaf" coffee packets for regular coffee, explaining that my wife and I drink coffee pretty frequently, but we don't care for decaf.  Vanessa not only traded my decaf for regular- she even gave me a handful of extras- something she certainly didn't have to do, but did so anyway, and with a great attitude, smile and personality.  The next morning, for breakfast, Vanessa even helped me make a waffle for my wife.  (I'd never made one before)  I would highly recommend the Quality Inn, in McKinney Tx to anyone who wants a great, friendly experience- without breaking the bank!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r149957046-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>149957046</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>My host booked the room for me as I was in town to attend a conference in McKinney. The room was good and so was the bathroom which was clean. The House keeping did a good job by providing clean towels and linen everyday. I was totally disappointed with the phone in my room as it never worked and missed all my calls including the calls from my home in India. I complained about this at the reception and they promised to fix it but I had the same problem the next day too. My host who booked the room for me was very cross and expressed his anger at the receptionist and the phone began to work the next day. The breakfast was good and filling but I had difficult time communicating with the Mexican girl (I presume) in the restaurant. On Saturday night the parking lot was over crowded with the cars of those who were attending the loud music show in the next compound. It was a noisy night. While I had some nice experiences with the hotel, a lot has to be improved on the hotel part.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My host booked the room for me as I was in town to attend a conference in McKinney. The room was good and so was the bathroom which was clean. The House keeping did a good job by providing clean towels and linen everyday. I was totally disappointed with the phone in my room as it never worked and missed all my calls including the calls from my home in India. I complained about this at the reception and they promised to fix it but I had the same problem the next day too. My host who booked the room for me was very cross and expressed his anger at the receptionist and the phone began to work the next day. The breakfast was good and filling but I had difficult time communicating with the Mexican girl (I presume) in the restaurant. On Saturday night the parking lot was over crowded with the cars of those who were attending the loud music show in the next compound. It was a noisy night. While I had some nice experiences with the hotel, a lot has to be improved on the hotel part.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r148247030-Quality_Inn-McKinney_Texas.html</t>
@@ -982,18 +1411,9 @@
     <t>The room was very clean. The manager on duty was pleasant. The heat in the room only kept the chill. They did offer us an upstairs room but that was not an option for my handicapped mother. The parking spaces were ice packed which also made it difficult.MoreShow less</t>
   </si>
   <si>
-    <t>Quality Inn H, General Manager at Quality Inn, responded to this reviewResponded January 25, 2013</t>
-  </si>
-  <si>
-    <t>Responded January 25, 2013</t>
-  </si>
-  <si>
     <t>The room was very clean. The manager on duty was pleasant. The heat in the room only kept the chill. They did offer us an upstairs room but that was not an option for my handicapped mother. The parking spaces were ice packed which also made it difficult.More</t>
   </si>
   <si>
-    <t>Mark C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145929224-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1013,9 +1433,6 @@
   </si>
   <si>
     <t>I made a reservation on line because I needed to go down and pick up my wife's car from a body shop.  Within an hour the body shop called and said the car wouldn't be done.  At this point it was 22 and one half hours before check in.  I called to change the reservation and Vanessa refused because it was less than 24 hours before check in and a change had already been made due to a mistake.  Totally arbitrary on Vanessa's part.  She chose not to change it because of "policy" even though she had changed it once.  When you try calling the 800 numbers you get a total runaround of "choices" and it is real difficult to get a real person.  When I finally did, I got hung up on twice being forwarded to "Customer Service".  Quality has my money and I don't have a room on the day I am going to be in the state all because they refuse to make 30 seconds worth of changes in the computer.  Nice work Vanessa.More</t>
-  </si>
-  <si>
-    <t>PhillipH939</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145855506-Quality_Inn-McKinney_Texas.html</t>
@@ -1045,7 +1462,34 @@
 I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn...My girlfriend and I arrived at the inn after booking on Priceline (first mistake). The hotel staff was friendly and served us promptly, considering the fact that it was about 10 PM. We were a little surprised by the coupon system for the pool and breakfast.Upon entering our room, we were greeted with the smell we could only describe as "old-lady perfume". Crickets littered the room, which we planned to deal with because that's not something that can be controlled easily, especially due to the fact that the rooms open to the outside, and we're overly-forgiving. My girlfriend took off her shoes to get comfortable and minutes later jumped in the shower. She noticed a black sludge coming off of her feet. I checked my socks and saw I picked up the same sludge from the carpet.We immediately decided this was not an experience we could deal with and requested a resolution at the front desk. They offered us another room and quickly found this room too did not live up to the Quality Inn name. I requested my money back, including the pet deposit, which was verbally agreed to (second mistake - always get signatures, names, and titles).I've consistently checked my bank account for a credit and for two months tried to work with them to get my money back. Management at the Quality Inn (Vanessa) claimed Priceline had my money and Priceline claimed Quality Inn had my money. I'm writing this in November after this event in July. I've yet to see my money.I will not stay at a Quality Inn or book with Priceline if I can help it and highly advise against staying at the Quality Inn McKinney.More</t>
   </si>
   <si>
-    <t>RoadTripFreaks</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145771390-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>145771390</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Thin walls</t>
+  </si>
+  <si>
+    <t>Nice staff and room. It was clean and comfortable, but the walls were very thin. Even though we arrived late (1:30), there were still people yelling outside our room until around 3am (Saturday night).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r145238482-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>145238482</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Good hotel, Good area</t>
+  </si>
+  <si>
+    <t>This was a transient hotel on our way home.  Far enough outside Dallas to be away from the traffis and noise.  It turned out to be really comfortable!  Staff was very pleasant to deal with, breakfast was pretty good (albeit standard fare), and rooms were very clean.  Several places to eat within easy walking distance.  Overall, it is a recommended place to stay</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r140346548-Quality_Inn-McKinney_Texas.html</t>
@@ -1069,9 +1513,6 @@
     <t>While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was...While on a layover in Denver, I called and reserved a room at this motel because we were to land in Dallas around 6 p.m. and we wanted to get out of the busy area and stay somewhere that was on the way home which is a 6 hour drive.  I actually called to get the Comfort Inn but they messed up and put us here by mistake.   This motel is located just off of I-75 North and you can see it from the Interstate, it's just at the end of the exit.  Perfect for a night's sleep while traveling.  Despite a few hitches trying to get in a room, we did stay and I must say, the front desk staff is so friendly and helpful with anything you ask for.  They've done renovations on the rooms and they have made them quite nice.  Flat screen tv's, nice comfy (really comfy!) beds, paint jobs, new fixtures, new carpet....our room smelled new!  The guy at the front desk when we got there, I think his name was Daniel and he was just as helpful as could be...he even offered to help us carry luggage upstairs (there is no elevator).  We got up there and the door was wide open and come to find out, the maintenance staff had left the door open by accident after they had done some work in there.  Daniel put us in a different room that was downstairs close to the office.  He told us what room and he met us there with the key cards.  He apologized and took $10 off of our room rate for the inconvenience.  It is located right next to a bar/club and if you go outside you can hear the band playing pretty loud but in our room we could not hear it and we slept well.  I think the rate for our room after he took the $10 off was like $68, tax included.  We woke up the next morning and like I said, I-75 is just right there so we checked out and away we went.  This was our first time at this motel but after reading reviews I knew before we got there that it was newly renovated.More</t>
   </si>
   <si>
-    <t>Jennifer J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r137533289-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1090,9 +1531,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>equine_traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r136575824-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1108,13 +1546,37 @@
     <t>We pulled in pretty late at the end of June 2012.  The front desk staff was helpful and considerate, giving us the directions to the easiest access point to our room.  There was a pretty active bar next door to the building, but we didn't hear a SOUND in our room!  The rooms appeared nicely updated, only problem was the air conditioner wasn't on at our arrival (and it's been DAYS of over 100 degrees) but as soon as we kicked it on, it cooled right down!  We were on the inner courtyard, on first floor and there were no distractions or noise.  Breakfast was a great perk and we would stay here again.  It's an older hotel but the appointments were newer and the staff friendly.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>We pulled in pretty late at the end of June 2012.  The front desk staff was helpful and considerate, giving us the directions to the easiest access point to our room.  There was a pretty active bar next door to the building, but we didn't hear a SOUND in our room!  The rooms appeared nicely updated, only problem was the air conditioner wasn't on at our arrival (and it's been DAYS of over 100 degrees) but as soon as we kicked it on, it cooled right down!  We were on the inner courtyard, on first floor and there were no distractions or noise.  Breakfast was a great perk and we would stay here again.  It's an older hotel but the appointments were newer and the staff friendly.More</t>
   </si>
   <si>
-    <t>Erica Q</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r135508282-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>135508282</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great hotel with nice staff and best beds. Nice pool and nice rooms as per value. I would like stay here again whenever I am in town. Would recommend to all my family and friends. Easy to find from exit. Right off of highway 75.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r133932828-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>133932828</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Rooms are spacious with couch, table, large refrigerator,micro-waveand long bathroom vanity area.  Nicely furnished.Hot breakfast includeswaffles, scrambled eggs, sausage, gravy, boiled eggs, fruit, yogurt, cerealtoast, juice, etc. Price is very reasonable,  Staff very helpful and friendly.Highly recommend.Has two large conferenace rooms is needed forbusiness meetings.  Two restaurants in walking distance.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r132326046-Quality_Inn-McKinney_Texas.html</t>
@@ -1132,9 +1594,6 @@
     <t>WORST hotel ever!! I have stayed at different hotels and this one is far the worst!! The rooms are super small. The pool was dirty. My children got kicked out of the pool eventhough they were being watched by a 16 year old while I was picking up my stuff in my room. And to top it off the housekeeper manager stole my Ipad!! Police were notified and the Ipad was never recovered. Worst experience of my life!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
   </si>
   <si>
-    <t>Ted N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127773201-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1153,9 +1612,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>jrpFlorence</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r127770340-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1168,7 +1624,40 @@
     <t>Right off the highway. Room is smallish but clean and quiet and they take pets. Huge points for double sheering the bed and trudge in the room.</t>
   </si>
   <si>
-    <t>Louisiana_Man_88</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r119502239-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>119502239</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Good value, clean room.</t>
+  </si>
+  <si>
+    <t>The rooms are small but clean. The staff was really friendly and helpful. The free breakfast was good. Not great, but more than just a continental breakfast. The only improvement I would make is that the a/c was really loud.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r114966057-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>114966057</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Excellent quality for price.</t>
+  </si>
+  <si>
+    <t>New management has made drastic improvements since my last stay.  Clean,new carpet and nice bedding.  Large refrigerator with freezer compartment.Staff went out of way to accomodate my needs.  Will always stay here when in McKinney area.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r114646476-Quality_Inn-McKinney_Texas.html</t>
@@ -1184,9 +1673,6 @@
   </si>
   <si>
     <t>I only have two complaints about this hotel: exterior corridor and some unfriendly staff.  The exterior corridor can't be fixed, but the staff can be trained.  The breakfast lady was rude, no questions.  Other staff members were friendly though.  The room was nice and modern.  Our bed was comfy and the couch was new.  The bathroom was very tiny though.  The kids thoroughly enjoyed the pool, and we enjoyed our stay.</t>
-  </si>
-  <si>
-    <t>ufoAllen</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r99542260-Quality_Inn-McKinney_Texas.html</t>
@@ -1212,9 +1698,6 @@
 The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast....I checked into the Quality Inn, McKinney TX on Saturday, February 26, 2011 planning to stay four nights while repairs are being completed on our home in Allen.  The desk clerk insisted on seeing my driver’s license and when I presented it, she made a photo copy.  I have never had that done before.  I was uncomfortable with this practice, and fund out later that other motel guests have refused, but were still allowed to stay.The manager gave me a special rate for my 4-night stay and when I had called him earlier in the week, I was told that a full breakfast was included with my stay.  I’m a Choice Privileges member and stay at their motels whenever I travel.  I was looking forward to a full breakfast, but when I arrived in the breakfast room, I found only bread, cereal, juice and coffee.  The attendant explained that they had run out of the normal, biscuits, bacon, sausage, and eggs, but the manager, Brian (Kumar) Patel had put an order in and there would be a full breakfast on Monday.  That did not occur so I called the hotel chain and found that a full breakfast is advertised.  The customer complaints representative called the motel and was assured that a full breakfast was being served.  The Monday morning breakfast attendant explained that they had switched to a continental breakfast and would no longer be serving a full breakfast.  I explained that the Choice Privileges representative in Grand Junction, CO was not aware of this.  She suggested that I talk with the manager.  The staff at the front desk said that Mr. Kumar would not be in on Monday, so I would have to wait.  When I checked out the manager said nothing to me about the fact that they had gone to a continental breakfast or the complaint I made with Choice Privileges.  He went on like nothing had occurred, but was not friendly.Having a quality motel is more that just having a nice room.  Total quality includes the breakfast offered guests and the honesty that goes with it.  This motel was far below the standards I expect from staying at a Choice Hotels establishment.  I stay at Quality Inns frequently with I travel and this motel gets a failing grade for the customer service it provides.	Joe Seiling, MSW	Major (Ret), U.S. Army	Medical Service CorpsMore</t>
   </si>
   <si>
-    <t>LaunaB</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r98147668-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1233,7 +1716,43 @@
     <t>We checked in specifically asking for a non-smoking room.  When we opened the door, we could smell the smoke, plus, there was an ash tray on the table by the door.  We went back to the front desk to ask for another room.  They said all the smoking rooms were at one end of the building, but if someone asked for an ash tray, they were given one, no matter which room they were in.  We were given another room, which also smelled like smoke, but not as strong as the first.The floor had cheerios near the corner of the bed, there were no hangers in the closet, and the toilet seat was only bolted down on one side.  There was urine where the other bolt was missing, as well as urine running down one side of the toilet and onto the floor. We won't be staying here again.More</t>
   </si>
   <si>
-    <t>noqualityinn</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r66886239-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>66886239</t>
+  </si>
+  <si>
+    <t>06/08/2010</t>
+  </si>
+  <si>
+    <t>Do NOT stay here</t>
+  </si>
+  <si>
+    <t>I was recently travelling to visit family and made the mistake of trusting that the name Quality Inn was an appropriate name.  Upon check-in I asked if the room had internet and I was told that it did.  The wireless interneet did not work, so I tried using the ethernet connection provided in the room, which also did not work.  The room was a smoking room and smellled like it had been cleaned prior to my stay.  There were cigarette ashes on the floor as well as trash behind the desk.I definitely would not stay here again!</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r43052542-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>43052542</t>
+  </si>
+  <si>
+    <t>09/20/2009</t>
+  </si>
+  <si>
+    <t>I'm not fussy, but this hotel is NOT 4 or 5 rating</t>
+  </si>
+  <si>
+    <t>An old Holiday Inn (from the 70s?) that has been refurbished.            Had about 12 crickets in room when I work up.  Maybe quiet at night, but not in morning.              Band at bar next door had a loud band.  Sounded like a good time, but I was bushed and did not check it out.   The A/C was noisy enough to mask out pretty well - but I was dead tired so that helped.   Get a room away from Hank's bar/grill.          As mentioned earlier, if bar busy, they take up thoe parking spaces, so you may need to park away from your room.   Parking packed when I went to bed - about 50% full when I woke up at 7am.          Breakfast the typical Choice "hot" breakfast - not bad for a mid level chain.            Room was a bit small, but decent and fairly clean (except from crickets I found later).   There is small space under door so they can get in there, I guess.  And I was on 2nd floor.         The old A/C worked fine, but the condesation runs outside the room on to the walkway (doors are  on walkway, not a corridor).          I would think much better rooms for about the same price in the area as some newer hotels are here.            Oh, the free WiFi worked very well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>An old Holiday Inn (from the 70s?) that has been refurbished.            Had about 12 crickets in room when I work up.  Maybe quiet at night, but not in morning.              Band at bar next door had a loud band.  Sounded like a good time, but I was bushed and did not check it out.   The A/C was noisy enough to mask out pretty well - but I was dead tired so that helped.   Get a room away from Hank's bar/grill.          As mentioned earlier, if bar busy, they take up thoe parking spaces, so you may need to park away from your room.   Parking packed when I went to bed - about 50% full when I woke up at 7am.          Breakfast the typical Choice "hot" breakfast - not bad for a mid level chain.            Room was a bit small, but decent and fairly clean (except from crickets I found later).   There is small space under door so they can get in there, I guess.  And I was on 2nd floor.         The old A/C worked fine, but the condesation runs outside the room on to the walkway (doors are  on walkway, not a corridor).          I would think much better rooms for about the same price in the area as some newer hotels are here.            Oh, the free WiFi worked very well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r38475645-Quality_Inn-McKinney_Texas.html</t>
@@ -1257,9 +1776,6 @@
     <t>Hotel was ok, but don't expect any parking on a night that the bar  next door has anything going on.  Patrons of the bar freely use the hotel parking leaving nowhere for the hotel customers to park. Security in the hotel parking lot refused to stop bar customers from parking in obvious hotel parking spots who were walking from their cars parked at the hotel to the bar. The desk clerk stated nothing could be done because both establishments are owned by the same person.  My family had to park down the street and walk back to the hotel.  I was given the "oh well" attitude from the hotel's staff.  I'll never stay there again and the rest of the people in town for the wedding agree... find somewhere else to sleep.More</t>
   </si>
   <si>
-    <t>duckadoodle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r35465201-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1278,9 +1794,6 @@
     <t>July 2009</t>
   </si>
   <si>
-    <t>txva228</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r23524408-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1299,7 +1812,40 @@
     <t>November 2008</t>
   </si>
   <si>
-    <t>funriss13</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r22990949-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>22990949</t>
+  </si>
+  <si>
+    <t>12/24/2008</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Went to mckinney texas on a business trip stayed at the Quality inn and enjoyed my stay extremly clean place friedly staff and really great breakfast and also there is a bar next door that has  very good food and a live band as wells as a hop skip and a jump next to my motel it was an awesome experince i will be back soon.</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r20515676-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>20515676</t>
+  </si>
+  <si>
+    <t>09/30/2008</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for one night and were pleasantly surprised.  The hotel is next door to a county bar with live music but we couldn't hear any of the hubbub from our pool front room.  The staff was very friendly.  Breakfast offerings included bacon and eggs and waffles in addition to the usual cereal, pastry, bagel choices.  The room was clean and the bed was comfortable.  No complaints!</t>
+  </si>
+  <si>
+    <t>September 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r14188826-Quality_Inn-McKinney_Texas.html</t>
@@ -1317,9 +1863,6 @@
     <t>Yes the Quality Inn in Mckinney is an old motel, but it feels nice and safe.  It is very homey and the staff were so very nice and accomodating.  The continental breakfast is just like having a made to order breakfast.  I travel on business trips and stay in some very upscale hotels all over the country.   This motel was very welcoming.  I would recommend it to anyone that needed a clean, safe place to spend the night.</t>
   </si>
   <si>
-    <t>dolphins1231</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r12411299-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1338,9 +1881,6 @@
     <t>November 2007</t>
   </si>
   <si>
-    <t>dirt_doctor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r6526656-Quality_Inn-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1900,39 @@
   </si>
   <si>
     <t>I didn't know that Holiday Inn still had old-style motels like this in their inventory. All of the rooms face out and there are no elevators, so you have to lug your suitcases up the outdoor staircases then walk down the outdoor balcony to your room. The lobby was nothing more than the check-in desk. The "restaurant" was a handful of small tables in an otherwise empty room. It's main purpose was obviously to give people a place to eat the continental breakfast, not order off the menu. The pool was outdoors. This is the kind of Holiday Inn my family stayed at on the way to our vacation destinations in the 1960s. Back then they were nice places to stay. Today, they're way below what you'd expect in this price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r4625830-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>4625830</t>
+  </si>
+  <si>
+    <t>03/14/2006</t>
+  </si>
+  <si>
+    <t>Terrible hotel, terrible service</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last year for church conference we were attending in McKinney.  I figured it would be an okay hotel since the other Holiday Inns I have stayed at in the past have been nice.  Was I ever wrong. The first room we were given didn't have a working light near the mirror which made it very difficult to get ready.   The maintenence guy was gone for the day so they had to give us another room.The second room we were in had bugs. Enough said about that.To top it all off, when we came back to our room on the last day we were there the maid left the door to our room wide open.  She hadn't even left towels or made the beds she just opened the door and left it.  We complained and nothing was done not even an apology.We will be going back to McKinney this year but we will not be satying at the Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last year for church conference we were attending in McKinney.  I figured it would be an okay hotel since the other Holiday Inns I have stayed at in the past have been nice.  Was I ever wrong. The first room we were given didn't have a working light near the mirror which made it very difficult to get ready.   The maintenence guy was gone for the day so they had to give us another room.The second room we were in had bugs. Enough said about that.To top it all off, when we came back to our room on the last day we were there the maid left the door to our room wide open.  She hadn't even left towels or made the beds she just opened the door and left it.  We complained and nothing was done not even an apology.We will be going back to McKinney this year but we will not be satying at the Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d99278-r3935767-Quality_Inn-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>3935767</t>
+  </si>
+  <si>
+    <t>09/23/2005</t>
+  </si>
+  <si>
+    <t>Disappointed, low end!</t>
+  </si>
+  <si>
+    <t>OLD and needed repairs, very disappointed, low end hotel, no ventilation in bathroom, moisture on walls! Next door to a restaurant with loud outdoor music and 'trashy' clientel. A little scary for an 'out of towner' traveler. Would not recommend this hotel.</t>
   </si>
 </sst>
 </file>
@@ -1864,119 +2437,111 @@
       <c r="A2" t="n">
         <v>1109</v>
       </c>
-      <c r="B2" t="n">
-        <v>174298</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1109</v>
       </c>
-      <c r="B3" t="n">
-        <v>174299</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1990,112 +2555,100 @@
       <c r="A4" t="n">
         <v>1109</v>
       </c>
-      <c r="B4" t="n">
-        <v>174300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1109</v>
       </c>
-      <c r="B5" t="n">
-        <v>174301</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2109,61 +2662,55 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1109</v>
       </c>
-      <c r="B6" t="n">
-        <v>174302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
@@ -2176,54 +2723,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1109</v>
       </c>
-      <c r="B7" t="n">
-        <v>129685</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2237,66 +2780,60 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1109</v>
       </c>
-      <c r="B8" t="n">
-        <v>174303</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2304,129 +2841,117 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1109</v>
       </c>
-      <c r="B9" t="n">
-        <v>174304</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1109</v>
       </c>
-      <c r="B10" t="n">
-        <v>100882</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2434,54 +2959,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1109</v>
       </c>
-      <c r="B11" t="n">
-        <v>174305</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2495,54 +3016,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1109</v>
       </c>
-      <c r="B12" t="n">
-        <v>174306</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2556,54 +3073,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1109</v>
       </c>
-      <c r="B13" t="n">
-        <v>174307</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2617,64 +3130,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1109</v>
       </c>
-      <c r="B14" t="n">
-        <v>174308</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" t="n">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2682,127 +3193,115 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1109</v>
       </c>
-      <c r="B15" t="n">
-        <v>125835</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1109</v>
       </c>
-      <c r="B16" t="n">
-        <v>3843</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2814,54 +3313,50 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1109</v>
       </c>
-      <c r="B17" t="n">
-        <v>9870</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2872,345 +3367,307 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>166</v>
-      </c>
-      <c r="X17" t="s">
-        <v>167</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1109</v>
       </c>
-      <c r="B18" t="n">
-        <v>174309</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>175</v>
-      </c>
-      <c r="X18" t="s">
-        <v>176</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1109</v>
       </c>
-      <c r="B19" t="n">
-        <v>114743</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>175</v>
-      </c>
-      <c r="X19" t="s">
-        <v>176</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1109</v>
       </c>
-      <c r="B20" t="n">
-        <v>174310</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>193</v>
-      </c>
-      <c r="X20" t="s">
-        <v>194</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1109</v>
       </c>
-      <c r="B21" t="n">
-        <v>88314</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1109</v>
       </c>
-      <c r="B22" t="n">
-        <v>134827</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3218,342 +3675,288 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1109</v>
       </c>
-      <c r="B23" t="n">
-        <v>174311</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1109</v>
       </c>
-      <c r="B24" t="n">
-        <v>28714</v>
-      </c>
-      <c r="C24" t="s">
-        <v>218</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>224</v>
-      </c>
-      <c r="X24" t="s">
-        <v>225</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1109</v>
       </c>
-      <c r="B25" t="n">
-        <v>174312</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>233</v>
-      </c>
-      <c r="X25" t="s">
-        <v>234</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1109</v>
       </c>
-      <c r="B26" t="n">
-        <v>174313</v>
-      </c>
-      <c r="C26" t="s">
-        <v>236</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>2</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>243</v>
-      </c>
-      <c r="X26" t="s">
-        <v>244</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1109</v>
       </c>
-      <c r="B27" t="n">
-        <v>174314</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3561,759 +3964,681 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1109</v>
       </c>
-      <c r="B28" t="n">
-        <v>174315</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1109</v>
       </c>
-      <c r="B29" t="n">
-        <v>50930</v>
-      </c>
-      <c r="C29" t="s">
-        <v>259</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>266</v>
-      </c>
-      <c r="X29" t="s">
-        <v>267</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1109</v>
       </c>
-      <c r="B30" t="n">
-        <v>3657</v>
-      </c>
-      <c r="C30" t="s">
-        <v>269</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>276</v>
-      </c>
-      <c r="X30" t="s">
-        <v>277</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1109</v>
       </c>
-      <c r="B31" t="n">
-        <v>174316</v>
-      </c>
-      <c r="C31" t="s">
-        <v>279</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1109</v>
       </c>
-      <c r="B32" t="n">
-        <v>174317</v>
-      </c>
-      <c r="C32" t="s">
-        <v>286</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>232</v>
       </c>
       <c r="O32" t="s">
-        <v>115</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1109</v>
       </c>
-      <c r="B33" t="n">
-        <v>174318</v>
-      </c>
-      <c r="C33" t="s">
-        <v>296</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>238</v>
+      </c>
+      <c r="X33" t="s">
+        <v>239</v>
+      </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1109</v>
       </c>
-      <c r="B34" t="n">
-        <v>174319</v>
-      </c>
-      <c r="C34" t="s">
-        <v>302</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>253</v>
+      </c>
+      <c r="X34" t="s">
+        <v>254</v>
+      </c>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1109</v>
       </c>
-      <c r="B35" t="n">
-        <v>17169</v>
-      </c>
-      <c r="C35" t="s">
-        <v>310</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="X35" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1109</v>
       </c>
-      <c r="B36" t="n">
-        <v>973</v>
-      </c>
-      <c r="C36" t="s">
-        <v>319</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="J36" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="K36" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>268</v>
+      </c>
+      <c r="X36" t="s">
+        <v>269</v>
+      </c>
       <c r="Y36" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1109</v>
       </c>
-      <c r="B37" t="n">
-        <v>174320</v>
-      </c>
-      <c r="C37" t="s">
-        <v>327</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="K37" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="O37" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>276</v>
+      </c>
+      <c r="X37" t="s">
+        <v>277</v>
+      </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1109</v>
       </c>
-      <c r="B38" t="n">
-        <v>174321</v>
-      </c>
-      <c r="C38" t="s">
-        <v>335</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4321,73 +4646,69 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>276</v>
+      </c>
+      <c r="X38" t="s">
+        <v>277</v>
+      </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1109</v>
       </c>
-      <c r="B39" t="n">
-        <v>10061</v>
-      </c>
-      <c r="C39" t="s">
-        <v>343</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="O39" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4395,70 +4716,62 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>348</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1109</v>
       </c>
-      <c r="B40" t="n">
-        <v>174322</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4466,208 +4779,186 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1109</v>
       </c>
-      <c r="B41" t="n">
-        <v>59725</v>
-      </c>
-      <c r="C41" t="s">
-        <v>358</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>304</v>
+      </c>
+      <c r="X41" t="s">
+        <v>305</v>
+      </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1109</v>
       </c>
-      <c r="B42" t="n">
-        <v>77415</v>
-      </c>
-      <c r="C42" t="s">
-        <v>364</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1109</v>
       </c>
-      <c r="B43" t="n">
-        <v>174323</v>
-      </c>
-      <c r="C43" t="s">
-        <v>371</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>313</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="J43" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>318</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4675,421 +4966,389 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1109</v>
       </c>
-      <c r="B44" t="n">
-        <v>174324</v>
-      </c>
-      <c r="C44" t="s">
-        <v>376</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>318</v>
+      </c>
+      <c r="O44" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>324</v>
+      </c>
+      <c r="X44" t="s">
+        <v>325</v>
+      </c>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1109</v>
       </c>
-      <c r="B45" t="n">
-        <v>174325</v>
-      </c>
-      <c r="C45" t="s">
-        <v>382</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="J45" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>388</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>115</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>332</v>
+      </c>
+      <c r="X45" t="s">
+        <v>333</v>
+      </c>
       <c r="Y45" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1109</v>
       </c>
-      <c r="B46" t="n">
-        <v>174326</v>
-      </c>
-      <c r="C46" t="s">
-        <v>390</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>335</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="L46" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="O46" t="s">
-        <v>69</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>341</v>
+      </c>
+      <c r="X46" t="s">
+        <v>342</v>
+      </c>
       <c r="Y46" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1109</v>
       </c>
-      <c r="B47" t="n">
-        <v>174327</v>
-      </c>
-      <c r="C47" t="s">
-        <v>397</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="J47" t="s">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="K47" t="s">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="L47" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
         <v>3</v>
       </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>350</v>
+      </c>
+      <c r="X47" t="s">
+        <v>351</v>
+      </c>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1109</v>
       </c>
-      <c r="B48" t="n">
-        <v>174328</v>
-      </c>
-      <c r="C48" t="s">
-        <v>405</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="J48" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>350</v>
+      </c>
+      <c r="X48" t="s">
+        <v>351</v>
+      </c>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1109</v>
       </c>
-      <c r="B49" t="n">
-        <v>174329</v>
-      </c>
-      <c r="C49" t="s">
-        <v>412</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5097,51 +5356,51 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1109</v>
       </c>
-      <c r="B50" t="n">
-        <v>174330</v>
-      </c>
-      <c r="C50" t="s">
-        <v>419</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="J50" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="K50" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>370</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
@@ -5154,68 +5413,60 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1109</v>
       </c>
-      <c r="B51" t="n">
-        <v>174331</v>
-      </c>
-      <c r="C51" t="s">
-        <v>425</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="J51" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="K51" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="L51" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5223,76 +5474,2678 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1109</v>
       </c>
-      <c r="B52" t="n">
-        <v>174332</v>
-      </c>
-      <c r="C52" t="s">
-        <v>432</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="J52" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="K52" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="O52" t="s">
-        <v>69</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
         <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>383</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>384</v>
+      </c>
+      <c r="J53" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53" t="s">
+        <v>386</v>
+      </c>
+      <c r="L53" t="s">
+        <v>387</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>388</v>
+      </c>
+      <c r="O53" t="s">
+        <v>75</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>389</v>
+      </c>
+      <c r="X53" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>393</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
+      </c>
+      <c r="K54" t="s">
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>398</v>
+      </c>
+      <c r="X54" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>401</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J55" t="s">
+        <v>403</v>
+      </c>
+      <c r="K55" t="s">
+        <v>404</v>
+      </c>
+      <c r="L55" t="s">
+        <v>405</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>406</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>407</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>408</v>
+      </c>
+      <c r="J56" t="s">
+        <v>409</v>
+      </c>
+      <c r="K56" t="s">
+        <v>410</v>
+      </c>
+      <c r="L56" t="s">
+        <v>411</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>412</v>
+      </c>
+      <c r="O56" t="s">
+        <v>75</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>418</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>419</v>
+      </c>
+      <c r="J58" t="s">
+        <v>420</v>
+      </c>
+      <c r="K58" t="s">
+        <v>421</v>
+      </c>
+      <c r="L58" t="s">
+        <v>422</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>423</v>
+      </c>
+      <c r="O58" t="s">
+        <v>83</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>424</v>
+      </c>
+      <c r="X58" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>428</v>
+      </c>
+      <c r="J59" t="s">
+        <v>429</v>
+      </c>
+      <c r="K59" t="s">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s">
+        <v>431</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>433</v>
+      </c>
+      <c r="J60" t="s">
+        <v>434</v>
+      </c>
+      <c r="K60" t="s">
+        <v>435</v>
+      </c>
+      <c r="L60" t="s">
+        <v>436</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>75</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
         <v>439</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" t="s">
+        <v>442</v>
+      </c>
+      <c r="L61" t="s">
+        <v>443</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>437</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>444</v>
+      </c>
+      <c r="X61" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>447</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>448</v>
+      </c>
+      <c r="J62" t="s">
+        <v>449</v>
+      </c>
+      <c r="K62" t="s">
+        <v>450</v>
+      </c>
+      <c r="L62" t="s">
+        <v>451</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>444</v>
+      </c>
+      <c r="X62" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>454</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>455</v>
+      </c>
+      <c r="J63" t="s">
+        <v>456</v>
+      </c>
+      <c r="K63" t="s">
+        <v>457</v>
+      </c>
+      <c r="L63" t="s">
+        <v>458</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>444</v>
+      </c>
+      <c r="X63" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" t="s">
+        <v>463</v>
+      </c>
+      <c r="L64" t="s">
+        <v>464</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>465</v>
+      </c>
+      <c r="O64" t="s">
+        <v>83</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>467</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>468</v>
+      </c>
+      <c r="J65" t="s">
+        <v>469</v>
+      </c>
+      <c r="K65" t="s">
+        <v>470</v>
+      </c>
+      <c r="L65" t="s">
+        <v>471</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>474</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>475</v>
+      </c>
+      <c r="J66" t="s">
+        <v>476</v>
+      </c>
+      <c r="K66" t="s">
+        <v>477</v>
+      </c>
+      <c r="L66" t="s">
+        <v>478</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>465</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>465</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>484</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>485</v>
+      </c>
+      <c r="J68" t="s">
+        <v>486</v>
+      </c>
+      <c r="K68" t="s">
+        <v>487</v>
+      </c>
+      <c r="L68" t="s">
+        <v>488</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>489</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>491</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>492</v>
+      </c>
+      <c r="J69" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" t="s">
+        <v>494</v>
+      </c>
+      <c r="L69" t="s">
+        <v>495</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>496</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>497</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>498</v>
+      </c>
+      <c r="J70" t="s">
+        <v>499</v>
+      </c>
+      <c r="K70" t="s">
+        <v>500</v>
+      </c>
+      <c r="L70" t="s">
+        <v>501</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>452</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>503</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>504</v>
+      </c>
+      <c r="J71" t="s">
+        <v>505</v>
+      </c>
+      <c r="K71" t="s">
+        <v>506</v>
+      </c>
+      <c r="L71" t="s">
+        <v>507</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>472</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>508</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>509</v>
+      </c>
+      <c r="J72" t="s">
+        <v>510</v>
+      </c>
+      <c r="K72" t="s">
+        <v>511</v>
+      </c>
+      <c r="L72" t="s">
+        <v>512</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>452</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>513</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>514</v>
+      </c>
+      <c r="J73" t="s">
+        <v>515</v>
+      </c>
+      <c r="K73" t="s">
+        <v>516</v>
+      </c>
+      <c r="L73" t="s">
+        <v>517</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>452</v>
+      </c>
+      <c r="O73" t="s">
+        <v>75</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>518</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>519</v>
+      </c>
+      <c r="J74" t="s">
+        <v>520</v>
+      </c>
+      <c r="K74" t="s">
+        <v>521</v>
+      </c>
+      <c r="L74" t="s">
+        <v>522</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>523</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>525</v>
+      </c>
+      <c r="J75" t="s">
+        <v>520</v>
+      </c>
+      <c r="K75" t="s">
+        <v>526</v>
+      </c>
+      <c r="L75" t="s">
+        <v>527</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>528</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>529</v>
+      </c>
+      <c r="J76" t="s">
+        <v>530</v>
+      </c>
+      <c r="K76" t="s">
+        <v>531</v>
+      </c>
+      <c r="L76" t="s">
+        <v>532</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>533</v>
+      </c>
+      <c r="O76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>534</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>535</v>
+      </c>
+      <c r="J77" t="s">
+        <v>536</v>
+      </c>
+      <c r="K77" t="s">
+        <v>537</v>
+      </c>
+      <c r="L77" t="s">
+        <v>538</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>539</v>
+      </c>
+      <c r="O77" t="s">
+        <v>195</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>540</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>541</v>
+      </c>
+      <c r="J78" t="s">
+        <v>542</v>
+      </c>
+      <c r="K78" t="s">
+        <v>543</v>
+      </c>
+      <c r="L78" t="s">
+        <v>544</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>545</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>546</v>
+      </c>
+      <c r="J79" t="s">
+        <v>547</v>
+      </c>
+      <c r="K79" t="s">
+        <v>548</v>
+      </c>
+      <c r="L79" t="s">
+        <v>549</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>550</v>
+      </c>
+      <c r="O79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>552</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>553</v>
+      </c>
+      <c r="J80" t="s">
+        <v>554</v>
+      </c>
+      <c r="K80" t="s">
+        <v>555</v>
+      </c>
+      <c r="L80" t="s">
+        <v>556</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>550</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>558</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>559</v>
+      </c>
+      <c r="J81" t="s">
+        <v>560</v>
+      </c>
+      <c r="K81" t="s">
+        <v>561</v>
+      </c>
+      <c r="L81" t="s">
+        <v>562</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>563</v>
+      </c>
+      <c r="O81" t="s">
+        <v>83</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>564</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>565</v>
+      </c>
+      <c r="J82" t="s">
+        <v>566</v>
+      </c>
+      <c r="K82" t="s">
+        <v>567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>568</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>569</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>571</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>572</v>
+      </c>
+      <c r="J83" t="s">
+        <v>573</v>
+      </c>
+      <c r="K83" t="s">
+        <v>574</v>
+      </c>
+      <c r="L83" t="s">
+        <v>575</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>576</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>578</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>579</v>
+      </c>
+      <c r="J84" t="s">
+        <v>580</v>
+      </c>
+      <c r="K84" t="s">
+        <v>581</v>
+      </c>
+      <c r="L84" t="s">
+        <v>582</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>583</v>
+      </c>
+      <c r="O84" t="s">
+        <v>83</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>584</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>585</v>
+      </c>
+      <c r="J85" t="s">
+        <v>586</v>
+      </c>
+      <c r="K85" t="s">
+        <v>587</v>
+      </c>
+      <c r="L85" t="s">
+        <v>588</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>589</v>
+      </c>
+      <c r="O85" t="s">
+        <v>75</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>590</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>591</v>
+      </c>
+      <c r="J86" t="s">
+        <v>592</v>
+      </c>
+      <c r="K86" t="s">
+        <v>593</v>
+      </c>
+      <c r="L86" t="s">
+        <v>594</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>595</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>596</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>597</v>
+      </c>
+      <c r="J87" t="s">
+        <v>598</v>
+      </c>
+      <c r="K87" t="s">
+        <v>599</v>
+      </c>
+      <c r="L87" t="s">
+        <v>600</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>601</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>602</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>603</v>
+      </c>
+      <c r="J88" t="s">
+        <v>604</v>
+      </c>
+      <c r="K88" t="s">
+        <v>605</v>
+      </c>
+      <c r="L88" t="s">
+        <v>606</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>607</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>608</v>
+      </c>
+      <c r="J89" t="s">
+        <v>609</v>
+      </c>
+      <c r="K89" t="s">
+        <v>610</v>
+      </c>
+      <c r="L89" t="s">
+        <v>611</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>612</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>613</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>614</v>
+      </c>
+      <c r="J90" t="s">
+        <v>615</v>
+      </c>
+      <c r="K90" t="s">
+        <v>616</v>
+      </c>
+      <c r="L90" t="s">
+        <v>617</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>618</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>620</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>621</v>
+      </c>
+      <c r="J91" t="s">
+        <v>622</v>
+      </c>
+      <c r="K91" t="s">
+        <v>623</v>
+      </c>
+      <c r="L91" t="s">
+        <v>624</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>626</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>627</v>
+      </c>
+      <c r="J92" t="s">
+        <v>628</v>
+      </c>
+      <c r="K92" t="s">
+        <v>629</v>
+      </c>
+      <c r="L92" t="s">
+        <v>630</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
